--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$N$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$AB$41</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>L+G</author>
     <author>Benno Flory</author>
     <author>Urs Nussbaumer</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="H4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Aufwand</t>
-  </si>
-  <si>
-    <t>Ist (h)</t>
   </si>
   <si>
     <t>Priorität</t>
@@ -294,9 +291,6 @@
     <t>KW 7</t>
   </si>
   <si>
-    <t>Plan(h)</t>
-  </si>
-  <si>
     <t>&lt;Björn Burkard&gt;</t>
   </si>
   <si>
@@ -314,11 +308,17 @@
   <si>
     <t>F.REQ.005 Aufgaben der Prüfung auslesen können</t>
   </si>
+  <si>
+    <t>Ist(h)</t>
+  </si>
+  <si>
+    <t>Soll (h)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
@@ -1944,16 +1944,23 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1965,12 +1972,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,15 +1989,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
-    <cellStyle name="Gelb-Feld" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="schatten_blau" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Gelb-Feld" xfId="2"/>
+    <cellStyle name="schatten_blau" xfId="3"/>
     <cellStyle name="Schlecht" xfId="5" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Titel" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2187,7 +2187,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2202,13 +2202,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2223,7 +2223,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2268,7 +2268,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,7 +2410,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2484,7 +2484,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.6</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -2999,14 +2999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3025,36 +3025,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="149" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
+      <c r="A1" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="143"/>
+      <c r="AB1" s="143"/>
     </row>
     <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
@@ -3069,63 +3069,63 @@
     <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="145" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="143" t="s">
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="143" t="s">
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="143" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="143" t="s">
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="144" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="143" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="141" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN3" s="141"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="142"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="145"/>
+      <c r="AL3" s="146"/>
+      <c r="AM3" s="145" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="145"/>
+      <c r="AO3" s="145"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="147"/>
     </row>
     <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
@@ -3133,22 +3133,22 @@
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>3</v>
-      </c>
       <c r="F4" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="101">
         <v>43073</v>
@@ -3294,15 +3294,15 @@
         <v>10</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="88">
         <f>SUM(C6:C10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="89">
         <f>SUM(D6:D10)</f>
-        <v>7.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E5" s="90"/>
       <c r="F5" s="91"/>
@@ -3349,12 +3349,14 @@
         <v>11</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2</v>
+      </c>
+      <c r="D6" s="33" t="str">
         <f>IF(SUM(I6:AB6)=0," ",SUM(I6:AB6))</f>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="31">
         <v>1</v>
@@ -3364,9 +3366,7 @@
       <c r="H6" s="79"/>
       <c r="I6" s="117"/>
       <c r="J6" s="117"/>
-      <c r="K6" s="119">
-        <v>2</v>
-      </c>
+      <c r="K6" s="119"/>
       <c r="L6" s="121"/>
       <c r="M6" s="122"/>
       <c r="N6" s="117"/>
@@ -3405,12 +3405,14 @@
         <v>12</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="33">
+        <v>34</v>
+      </c>
+      <c r="C7" s="39">
+        <v>3</v>
+      </c>
+      <c r="D7" s="33" t="str">
         <f t="shared" ref="D7:D10" si="0">IF(SUM(I7:AB7)=0," ",SUM(I7:AB7))</f>
-        <v>3</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="38">
         <v>1</v>
@@ -3425,9 +3427,7 @@
       <c r="M7" s="122"/>
       <c r="N7" s="117"/>
       <c r="O7" s="117"/>
-      <c r="P7" s="119">
-        <v>3</v>
-      </c>
+      <c r="P7" s="119"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="43"/>
       <c r="S7" s="117"/>
@@ -3461,12 +3461,14 @@
         <v>13</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="33">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="39">
+        <v>4</v>
+      </c>
+      <c r="D8" s="33" t="str">
+        <f>IF(SUM(I8:AQ8)=0," ",SUM(I8:AQ8))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="38">
         <v>1</v>
@@ -3483,16 +3485,12 @@
       <c r="O8" s="117"/>
       <c r="P8" s="35"/>
       <c r="Q8" s="42"/>
-      <c r="R8" s="119">
-        <v>1</v>
-      </c>
+      <c r="R8" s="119"/>
       <c r="S8" s="117"/>
       <c r="T8" s="117"/>
       <c r="U8" s="35"/>
       <c r="V8" s="42"/>
-      <c r="W8" s="119">
-        <v>1</v>
-      </c>
+      <c r="W8" s="119"/>
       <c r="X8" s="120"/>
       <c r="Y8" s="120"/>
       <c r="Z8" s="120"/>
@@ -3507,25 +3505,21 @@
       <c r="AI8" s="129"/>
       <c r="AJ8" s="42"/>
       <c r="AK8" s="33"/>
-      <c r="AL8" s="131">
-        <v>1</v>
-      </c>
+      <c r="AL8" s="131"/>
       <c r="AM8" s="128"/>
       <c r="AN8" s="117"/>
       <c r="AO8" s="42"/>
       <c r="AP8" s="33"/>
-      <c r="AQ8" s="119">
-        <v>1</v>
-      </c>
+      <c r="AQ8" s="119"/>
     </row>
     <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="60"/>
       <c r="B9" s="71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D9:D10" si="1">IF(SUM(I9:AQ9)=0," ",SUM(I9:AQ9))</f>
         <v>0.6</v>
       </c>
       <c r="E9" s="38">
@@ -3577,12 +3571,12 @@
         <v>15</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="46"/>
-      <c r="D10" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D10" s="33">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="E10" s="45">
         <v>1</v>
@@ -3625,7 +3619,7 @@
       <c r="AO10" s="119">
         <v>4</v>
       </c>
-      <c r="AP10" s="157"/>
+      <c r="AP10" s="141"/>
       <c r="AQ10" s="70"/>
     </row>
     <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3633,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="99">
         <f>SUM(C12:C15)</f>
@@ -3688,11 +3682,11 @@
         <v>21</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="53">
-        <f>IF(SUM(I12:AB12)=0," ",SUM(I12:AB12))</f>
+        <f>IF(SUM(I12:AQ12)=0," ",SUM(I12:AQ12))</f>
         <v>5</v>
       </c>
       <c r="E12" s="31">
@@ -3748,7 +3742,10 @@
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="53"/>
+      <c r="D13" s="53" t="str">
+        <f t="shared" ref="D13:D15" si="2">IF(SUM(I13:AQ13)=0," ",SUM(I13:AQ13))</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="E13" s="31"/>
       <c r="F13" s="32"/>
       <c r="G13" s="34"/>
@@ -3795,7 +3792,10 @@
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="E14" s="31"/>
       <c r="F14" s="32"/>
       <c r="G14" s="34"/>
@@ -3843,7 +3843,7 @@
       <c r="B15" s="66"/>
       <c r="C15" s="32"/>
       <c r="D15" s="53" t="str">
-        <f t="shared" ref="D15" si="1">IF(SUM(I15:AB15)=0," ",SUM(I15:AB15))</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="31"/>
@@ -3891,7 +3891,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="88">
         <f>SUM(C17:C23)</f>
@@ -3946,7 +3946,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="53">
@@ -4006,7 +4006,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="53"/>
@@ -4057,7 +4057,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="53"/>
@@ -4108,7 +4108,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="53"/>
@@ -4159,7 +4159,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="53"/>
@@ -4210,7 +4210,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="53"/>
@@ -4261,7 +4261,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="33" t="str">
@@ -4315,7 +4315,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="88">
         <f>SUM(C25:C27)</f>
@@ -4370,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="53" t="str">
@@ -4424,7 +4424,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="53" t="str">
@@ -4478,7 +4478,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="53" t="str">
@@ -4532,7 +4532,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="88">
         <f>SUM(C29:C30)</f>
@@ -4587,7 +4587,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="53"/>
@@ -4690,7 +4690,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="88">
         <f>SUM(C32:C33)</f>
@@ -4745,7 +4745,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="53" t="str">
@@ -4799,7 +4799,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="33" t="str">
@@ -4851,139 +4851,139 @@
     <row r="34" spans="1:43" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="84"/>
       <c r="B34" s="102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="103">
         <f>SUM(C5+C11+C16+C24+C28+C31)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D34" s="103">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>35.6</v>
+        <v>32.6</v>
       </c>
       <c r="E34" s="103"/>
       <c r="F34" s="103"/>
       <c r="G34" s="104"/>
       <c r="H34" s="105"/>
       <c r="I34" s="106">
-        <f t="shared" ref="I34:AB34" si="2">SUM(I5:I33)</f>
+        <f t="shared" ref="I34:AB34" si="3">SUM(I5:I33)</f>
         <v>0</v>
       </c>
       <c r="J34" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34" s="107">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="L34" s="107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M34" s="107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N34" s="107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P34" s="107">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="3"/>
+        <v>1.6</v>
       </c>
       <c r="Q34" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="R34" s="107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S34" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="107">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="S34" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="103">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="107">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
       <c r="V34" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W34" s="107">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="X34" s="107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y34" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z34" s="107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA34" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB34" s="107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC34" s="107">
-        <f t="shared" ref="AC34:AL34" si="3">SUM(AC5:AC33)</f>
+        <f t="shared" ref="AC34:AL34" si="4">SUM(AC5:AC33)</f>
         <v>0</v>
       </c>
       <c r="AD34" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE34" s="107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF34" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG34" s="135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH34" s="107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI34" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK34" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL34" s="107">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AM34" s="106">
         <f>SUM(AM5:AM33)</f>
@@ -5003,23 +5003,23 @@
       </c>
       <c r="AQ34" s="108">
         <f>SUM(AQ5:AQ33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="109"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
     </row>
     <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="110"/>
       <c r="B36" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
@@ -5027,31 +5027,31 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="147"/>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="147"/>
-      <c r="X36" s="147"/>
-      <c r="Y36" s="147"/>
-      <c r="Z36" s="147"/>
-      <c r="AA36" s="147"/>
-      <c r="AB36" s="147"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="150"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="150"/>
+      <c r="R36" s="150"/>
+      <c r="S36" s="150"/>
+      <c r="T36" s="150"/>
+      <c r="U36" s="150"/>
+      <c r="V36" s="150"/>
+      <c r="W36" s="150"/>
+      <c r="X36" s="150"/>
+      <c r="Y36" s="150"/>
+      <c r="Z36" s="150"/>
+      <c r="AA36" s="150"/>
+      <c r="AB36" s="150"/>
     </row>
     <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="118"/>
       <c r="B37" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
@@ -5059,33 +5059,33 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="145"/>
-      <c r="O37" s="145"/>
-      <c r="P37" s="145"/>
-      <c r="Q37" s="145"/>
-      <c r="R37" s="145"/>
-      <c r="S37" s="145"/>
-      <c r="T37" s="145"/>
-      <c r="U37" s="145"/>
-      <c r="V37" s="145"/>
-      <c r="W37" s="145"/>
-      <c r="X37" s="145"/>
-      <c r="Y37" s="145"/>
-      <c r="Z37" s="145"/>
-      <c r="AA37" s="145"/>
-      <c r="AB37" s="145"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+      <c r="N37" s="148"/>
+      <c r="O37" s="148"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="148"/>
+      <c r="R37" s="148"/>
+      <c r="S37" s="148"/>
+      <c r="T37" s="148"/>
+      <c r="U37" s="148"/>
+      <c r="V37" s="148"/>
+      <c r="W37" s="148"/>
+      <c r="X37" s="148"/>
+      <c r="Y37" s="148"/>
+      <c r="Z37" s="148"/>
+      <c r="AA37" s="148"/>
+      <c r="AB37" s="148"/>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
@@ -5093,26 +5093,26 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="145"/>
-      <c r="S38" s="145"/>
-      <c r="T38" s="145"/>
-      <c r="U38" s="145"/>
-      <c r="V38" s="145"/>
-      <c r="W38" s="145"/>
-      <c r="X38" s="145"/>
-      <c r="Y38" s="145"/>
-      <c r="Z38" s="145"/>
-      <c r="AA38" s="145"/>
-      <c r="AB38" s="145"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
+      <c r="N38" s="148"/>
+      <c r="O38" s="148"/>
+      <c r="P38" s="148"/>
+      <c r="Q38" s="148"/>
+      <c r="R38" s="148"/>
+      <c r="S38" s="148"/>
+      <c r="T38" s="148"/>
+      <c r="U38" s="148"/>
+      <c r="V38" s="148"/>
+      <c r="W38" s="148"/>
+      <c r="X38" s="148"/>
+      <c r="Y38" s="148"/>
+      <c r="Z38" s="148"/>
+      <c r="AA38" s="148"/>
+      <c r="AB38" s="148"/>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
@@ -5139,6 +5139,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I37:AB38"/>
+    <mergeCell ref="I36:AB36"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="S3:W3"/>
@@ -5146,11 +5151,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="I37:AB38"/>
-    <mergeCell ref="I36:AB36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5164,7 +5164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5183,20 +5183,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
+      <c r="A1" s="153"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="111"/>
@@ -5216,10 +5216,10 @@
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="116" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B6" s="112">
         <f>Zeitplanung!K34</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="B11" s="112">
         <f>Zeitplanung!P34</f>
-        <v>4.5999999999999996</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="B13" s="112">
         <f>Zeitplanung!R34</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B18" s="112">
         <f>Zeitplanung!W34</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5519,42 +5519,42 @@
       </c>
       <c r="B33" s="112">
         <f>Zeitplanung!AL34</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="155"/>
+      <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="151"/>
+      <c r="A37" s="151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="152"/>
       <c r="C37" s="112">
         <f>Zeitplanung!C5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D37" s="112">
         <f>Zeitplanung!D5</f>
-        <v>7.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="155" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="156"/>
+      <c r="A38" s="156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="157"/>
       <c r="C38" s="112">
         <f>Zeitplanung!C11</f>
         <v>0</v>
@@ -5565,10 +5565,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="150" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="151"/>
+      <c r="A39" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="152"/>
       <c r="C39" s="112">
         <f>Zeitplanung!C16</f>
         <v>0</v>
@@ -5579,10 +5579,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="155" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="156"/>
+      <c r="A40" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="157"/>
       <c r="C40" s="112">
         <f>Zeitplanung!C24</f>
         <v>0</v>
@@ -5593,10 +5593,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="150" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="151"/>
+      <c r="A41" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="152"/>
       <c r="C41" s="112">
         <f>Zeitplanung!C28</f>
         <v>0</v>
@@ -5607,10 +5607,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="151"/>
+      <c r="A42" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="152"/>
       <c r="C42" s="112">
         <f>Zeitplanung!C31</f>
         <v>0</v>

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$N$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Zeitplanung!$A$1:$AB$41</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>L+G</author>
     <author>Benno Flory</author>
     <author>Urs Nussbaumer</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1" shapeId="0">
+    <comment ref="C4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="1" shapeId="0">
+    <comment ref="D4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="2" shapeId="0">
+    <comment ref="B7" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Nr.</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Benutzerschulung</t>
   </si>
   <si>
-    <t>Anforderung #06</t>
-  </si>
-  <si>
     <t>Administration, Planung, Dokumentation</t>
   </si>
   <si>
@@ -273,16 +270,10 @@
     <t xml:space="preserve">Dokumentation </t>
   </si>
   <si>
-    <t>Anforderung #07</t>
-  </si>
-  <si>
     <t>CorrectionTool</t>
   </si>
   <si>
     <t>Ferien</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Geplant</t>
@@ -294,31 +285,37 @@
     <t>&lt;Björn Burkard&gt;</t>
   </si>
   <si>
-    <t>F.REQ.001 Aufgaben der Prüfung auslesen können</t>
-  </si>
-  <si>
-    <t>F.REQ.002 Aufgaben der Prüfung auslesen können</t>
-  </si>
-  <si>
-    <t>F.REQ.003 Aufgaben der Prüfung auslesen können</t>
-  </si>
-  <si>
-    <t>F.REQ.004 Aufgaben der Prüfung auslesen können</t>
-  </si>
-  <si>
-    <t>F.REQ.005 Aufgaben der Prüfung auslesen können</t>
-  </si>
-  <si>
     <t>Ist(h)</t>
   </si>
   <si>
     <t>Soll (h)</t>
   </si>
+  <si>
+    <t>F.REQ.001 Verschiedene Konfigurationen auslesen</t>
+  </si>
+  <si>
+    <t>F.REQ.002 Die Konfiguration des Schüler in einem Textfile</t>
+  </si>
+  <si>
+    <t>F.REQ.003 Lösung im Textfile</t>
+  </si>
+  <si>
+    <t>F.REQ.004 Keine VM selber öffnen</t>
+  </si>
+  <si>
+    <t>F.REQ.005 Webseite</t>
+  </si>
+  <si>
+    <t>F.REQ.006 Namen auslesen</t>
+  </si>
+  <si>
+    <t>F.REQ.006 USB Sticks auswählen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
@@ -513,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -862,17 +859,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1044,15 +1030,6 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1212,21 +1189,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color indexed="64"/>
@@ -1304,88 +1266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1523,6 +1403,158 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1538,13 +1570,13 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1590,19 +1622,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1614,13 +1646,13 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,105 +1697,84 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1779,85 +1790,79 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,19 +1874,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3"/>
@@ -1901,10 +1906,10 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="41" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="50" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="48" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1913,7 +1918,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyBorder="1">
@@ -1922,81 +1927,123 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="29" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="28" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="79" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="70" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="80" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="71" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="72" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="73" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
-    <cellStyle name="Gelb-Feld" xfId="2"/>
-    <cellStyle name="schatten_blau" xfId="3"/>
+    <cellStyle name="Gelb-Feld" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="schatten_blau" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Schlecht" xfId="5" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="4"/>
+    <cellStyle name="Titel" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2187,7 +2234,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2202,13 +2249,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2217,7 +2264,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2410,19 +2457,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2484,13 +2531,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2999,14 +3046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3025,9 +3072,2193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+    </row>
+    <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="132"/>
+      <c r="AH3" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="132"/>
+      <c r="AJ3" s="132"/>
+      <c r="AK3" s="132"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="132"/>
+      <c r="AO3" s="132"/>
+      <c r="AP3" s="132"/>
+      <c r="AQ3" s="133"/>
+    </row>
+    <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="93">
+        <v>43073</v>
+      </c>
+      <c r="J4" s="25">
+        <v>43074</v>
+      </c>
+      <c r="K4" s="25">
+        <f>J4+1</f>
+        <v>43075</v>
+      </c>
+      <c r="L4" s="26">
+        <f>K4+1</f>
+        <v>43076</v>
+      </c>
+      <c r="M4" s="27">
+        <f>L4+1</f>
+        <v>43077</v>
+      </c>
+      <c r="N4" s="28">
+        <f>M4+3</f>
+        <v>43080</v>
+      </c>
+      <c r="O4" s="25">
+        <f>N4+1</f>
+        <v>43081</v>
+      </c>
+      <c r="P4" s="25">
+        <f>O4+1</f>
+        <v>43082</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>P4+1</f>
+        <v>43083</v>
+      </c>
+      <c r="R4" s="29">
+        <f>Q4+1</f>
+        <v>43084</v>
+      </c>
+      <c r="S4" s="28">
+        <f>R4+3</f>
+        <v>43087</v>
+      </c>
+      <c r="T4" s="25">
+        <f>S4+1</f>
+        <v>43088</v>
+      </c>
+      <c r="U4" s="25">
+        <f>T4+1</f>
+        <v>43089</v>
+      </c>
+      <c r="V4" s="25">
+        <f>U4+1</f>
+        <v>43090</v>
+      </c>
+      <c r="W4" s="29">
+        <f>V4+1</f>
+        <v>43091</v>
+      </c>
+      <c r="X4" s="28">
+        <f>W4+3</f>
+        <v>43094</v>
+      </c>
+      <c r="Y4" s="25">
+        <f>X4+1</f>
+        <v>43095</v>
+      </c>
+      <c r="Z4" s="25">
+        <f>Y4+1</f>
+        <v>43096</v>
+      </c>
+      <c r="AA4" s="25">
+        <f>Z4+1</f>
+        <v>43097</v>
+      </c>
+      <c r="AB4" s="29">
+        <f>AA4+1</f>
+        <v>43098</v>
+      </c>
+      <c r="AC4" s="28">
+        <f>AB4+3</f>
+        <v>43101</v>
+      </c>
+      <c r="AD4" s="25">
+        <f>AC4+1</f>
+        <v>43102</v>
+      </c>
+      <c r="AE4" s="25">
+        <f>AD4+1</f>
+        <v>43103</v>
+      </c>
+      <c r="AF4" s="25">
+        <f>AE4+1</f>
+        <v>43104</v>
+      </c>
+      <c r="AG4" s="26">
+        <f>AF4+1</f>
+        <v>43105</v>
+      </c>
+      <c r="AH4" s="28">
+        <f>AG4+3</f>
+        <v>43108</v>
+      </c>
+      <c r="AI4" s="30">
+        <f>AH4+1</f>
+        <v>43109</v>
+      </c>
+      <c r="AJ4" s="30">
+        <f>AI4+1</f>
+        <v>43110</v>
+      </c>
+      <c r="AK4" s="30">
+        <f>AJ4+1</f>
+        <v>43111</v>
+      </c>
+      <c r="AL4" s="27">
+        <f>AK4+1</f>
+        <v>43112</v>
+      </c>
+      <c r="AM4" s="26">
+        <f>AL4+3</f>
+        <v>43115</v>
+      </c>
+      <c r="AN4" s="30">
+        <f>AM4+1</f>
+        <v>43116</v>
+      </c>
+      <c r="AO4" s="30">
+        <f>AN4+1</f>
+        <v>43117</v>
+      </c>
+      <c r="AP4" s="30">
+        <f>AO4+1</f>
+        <v>43118</v>
+      </c>
+      <c r="AQ4" s="152">
+        <f>AP4+1</f>
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="78">
+        <v>10</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="81">
+        <f>SUM(C6:C10)</f>
+        <v>12.6</v>
+      </c>
+      <c r="D5" s="82">
+        <f>SUM(D6:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="153"/>
+    </row>
+    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="60">
+        <v>11</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2</v>
+      </c>
+      <c r="D6" s="33" t="str">
+        <f>IF(SUM(I6:AB6)=0," ",SUM(I6:AB6))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="154"/>
+    </row>
+    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="60">
+        <v>12</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="39">
+        <v>3</v>
+      </c>
+      <c r="D7" s="33" t="str">
+        <f t="shared" ref="D7" si="0">IF(SUM(I7:AB7)=0," ",SUM(I7:AB7))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E7" s="38">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="125"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="108"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="155"/>
+    </row>
+    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="60">
+        <v>13</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="39">
+        <v>4</v>
+      </c>
+      <c r="D8" s="33" t="str">
+        <f>IF(SUM(I8:AQ8)=0," ",SUM(I8:AQ8))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" s="38">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="125"/>
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="120"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="161"/>
+      <c r="AR8" s="162"/>
+    </row>
+    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="60">
+        <v>14</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="39">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="33" t="str">
+        <f t="shared" ref="D9:D10" si="1">IF(SUM(I9:AQ9)=0," ",SUM(I9:AQ9))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E9" s="38">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="120"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="156"/>
+    </row>
+    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="60">
+        <v>15</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="46">
+        <v>3</v>
+      </c>
+      <c r="D10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="123"/>
+      <c r="AM10" s="119"/>
+      <c r="AN10" s="108"/>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="148"/>
+      <c r="AQ10" s="157"/>
+    </row>
+    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="78">
+        <v>20</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="91">
+        <f>SUM(C12:C15)</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="81">
+        <f>SUM(D12:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="88"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="153"/>
+    </row>
+    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61">
+        <v>21</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="32">
+        <v>5</v>
+      </c>
+      <c r="D12" s="53" t="str">
+        <f>IF(SUM(I12:AQ12)=0," ",SUM(I12:AQ12))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="127"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="156"/>
+      <c r="AU12"/>
+    </row>
+    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61">
+        <v>22</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="53" t="str">
+        <f t="shared" ref="D13:D15" si="2">IF(SUM(I13:AQ13)=0," ",SUM(I13:AQ13))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="129"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="127"/>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="108"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="156"/>
+    </row>
+    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61">
+        <v>23</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="127"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="108"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="156"/>
+    </row>
+    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61">
+        <v>24</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="127"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="108"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="156"/>
+    </row>
+    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="78">
+        <v>30</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="81">
+        <f>SUM(C17:C23)</f>
+        <v>65</v>
+      </c>
+      <c r="D16" s="82">
+        <f>SUM(D17:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16" s="89"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="88"/>
+      <c r="AN16" s="89"/>
+      <c r="AO16" s="89"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="153"/>
+    </row>
+    <row r="17" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61">
+        <v>31</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="32">
+        <v>28</v>
+      </c>
+      <c r="D17" s="53" t="str">
+        <f>IF(SUM(I17:AB17)=0," ",SUM(I17:AB17))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="156"/>
+    </row>
+    <row r="18" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="61">
+        <v>32</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="32">
+        <v>9</v>
+      </c>
+      <c r="D18" s="53" t="str">
+        <f t="shared" ref="D18:D23" si="3">IF(SUM(I18:AB18)=0," ",SUM(I18:AB18))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="129"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="125"/>
+      <c r="AH18" s="127"/>
+      <c r="AI18" s="120"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="53"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="119"/>
+      <c r="AN18" s="108"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="156"/>
+    </row>
+    <row r="19" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="61">
+        <v>33</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="32">
+        <v>6</v>
+      </c>
+      <c r="D19" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E19" s="31">
+        <v>2</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="129"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="108"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="53"/>
+      <c r="AQ19" s="156"/>
+    </row>
+    <row r="20" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="61">
+        <v>34</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="32">
+        <v>8</v>
+      </c>
+      <c r="D20" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E20" s="31">
+        <v>2</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="111"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="119"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="156"/>
+    </row>
+    <row r="21" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="61">
+        <v>35</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="32">
+        <v>8</v>
+      </c>
+      <c r="D21" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="125"/>
+      <c r="AC21" s="129"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="111"/>
+      <c r="AG21" s="125"/>
+      <c r="AH21" s="127"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="119"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="53"/>
+      <c r="AQ21" s="156"/>
+    </row>
+    <row r="22" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="61">
+        <v>36</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="32">
+        <v>2</v>
+      </c>
+      <c r="D22" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E22" s="31">
+        <v>1</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="111"/>
+      <c r="AG22" s="125"/>
+      <c r="AH22" s="127"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="122"/>
+      <c r="AM22" s="119"/>
+      <c r="AN22" s="108"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="156"/>
+    </row>
+    <row r="23" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="61">
+        <v>37</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="39">
+        <v>4</v>
+      </c>
+      <c r="D23" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E23" s="38">
+        <v>1</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="130"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="125"/>
+      <c r="AH23" s="127"/>
+      <c r="AI23" s="120"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="122"/>
+      <c r="AM23" s="119"/>
+      <c r="AN23" s="108"/>
+      <c r="AO23" s="110"/>
+      <c r="AP23" s="33"/>
+      <c r="AQ23" s="157"/>
+    </row>
+    <row r="24" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="78">
+        <v>40</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="81">
+        <f>SUM(C25:C27)</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="82">
+        <f>SUM(D25:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="88"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="85"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="89"/>
+      <c r="AJ24" s="89"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="88"/>
+      <c r="AN24" s="89"/>
+      <c r="AO24" s="89"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="153"/>
+    </row>
+    <row r="25" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="61">
+        <v>40</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="32">
+        <v>1</v>
+      </c>
+      <c r="D25" s="53" t="str">
+        <f>IF(SUM(I25:AB25)=0," ",SUM(I25:AB25))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="127"/>
+      <c r="AI25" s="120"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="119"/>
+      <c r="AN25" s="108"/>
+      <c r="AO25" s="110"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="158"/>
+    </row>
+    <row r="26" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="61">
+        <v>41</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="32">
+        <v>1</v>
+      </c>
+      <c r="D26" s="53" t="str">
+        <f>IF(SUM(I26:AB26)=0," ",SUM(I26:AB26))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="125"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="125"/>
+      <c r="AH26" s="127"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="119"/>
+      <c r="AN26" s="108"/>
+      <c r="AO26" s="110"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="159"/>
+    </row>
+    <row r="27" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="61">
+        <v>42</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="52">
+        <v>1</v>
+      </c>
+      <c r="D27" s="53" t="str">
+        <f>IF(SUM(I27:AB27)=0," ",SUM(I27:AB27))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E27" s="55">
+        <v>1</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="125"/>
+      <c r="AC27" s="130"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="125"/>
+      <c r="AH27" s="127"/>
+      <c r="AI27" s="120"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="119"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="110"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="155"/>
+    </row>
+    <row r="28" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="78">
+        <v>50</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="81">
+        <f>SUM(C29:C30)</f>
+        <v>8</v>
+      </c>
+      <c r="D28" s="82">
+        <f>SUM(D29:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="89"/>
+      <c r="AJ28" s="89"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="83"/>
+      <c r="AM28" s="88"/>
+      <c r="AN28" s="89"/>
+      <c r="AO28" s="89"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="153"/>
+    </row>
+    <row r="29" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="62">
+        <v>51</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="32">
+        <v>8</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="31">
+        <v>3</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="119"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="127"/>
+      <c r="AI29" s="120"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="124"/>
+      <c r="AM29" s="119"/>
+      <c r="AN29" s="108"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="110"/>
+      <c r="AQ29" s="158"/>
+    </row>
+    <row r="30" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="62">
+        <v>52</v>
+      </c>
+      <c r="B30" s="70"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="57" t="str">
+        <f>IF(SUM(I30:AB30)=0," ",SUM(I30:AB30))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="125"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="125"/>
+      <c r="AH30" s="127"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="119"/>
+      <c r="AN30" s="108"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="155"/>
+    </row>
+    <row r="31" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="78">
+        <v>60</v>
+      </c>
+      <c r="B31" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="81">
+        <f>SUM(C32:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="82">
+        <f>SUM(D32:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="89"/>
+      <c r="AJ31" s="89"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="83"/>
+      <c r="AM31" s="88"/>
+      <c r="AN31" s="89"/>
+      <c r="AO31" s="89"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="153"/>
+    </row>
+    <row r="32" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="61">
+        <v>61</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="53" t="str">
+        <f>IF(SUM(I32:AB32)=0," ",SUM(I32:AB32))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E32" s="31">
+        <v>2</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="125"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="125"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="120"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="119"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="159"/>
+    </row>
+    <row r="33" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="60">
+        <v>62</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="33" t="str">
+        <f>IF(SUM(I33:AB33)=0," ",SUM(I33:AB33))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E33" s="38">
+        <v>1</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="125"/>
+      <c r="AC33" s="130"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="125"/>
+      <c r="AH33" s="127"/>
+      <c r="AI33" s="120"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="119"/>
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="159"/>
+    </row>
+    <row r="34" spans="1:43" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="77"/>
+      <c r="B34" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="95">
+        <f>SUM(C5+C11+C16+C24+C28+C31)</f>
+        <v>93.6</v>
+      </c>
+      <c r="D34" s="95">
+        <f>SUM(D31+D28+D24+D16+D11+D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98">
+        <f>SUM(I5:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="95">
+        <f>SUM(J5:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="99">
+        <f>SUM(K5:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="99">
+        <f>SUM(L5:L33)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="99">
+        <f>SUM(M5:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="99">
+        <f>SUM(N5:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="95">
+        <f>SUM(O5:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="99">
+        <f>SUM(P5:P33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="95">
+        <f>SUM(Q5:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="99">
+        <f>SUM(R5:R33)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="98">
+        <f>SUM(S5:S33)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="95">
+        <f>SUM(T5:T33)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="99">
+        <f>SUM(U5:U33)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="95">
+        <f>SUM(V5:V33)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="99">
+        <f>SUM(W5:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="98">
+        <f>SUM(X5:X33)</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="95">
+        <f>SUM(Y5:Y33)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="99">
+        <f>SUM(Z5:Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="95">
+        <f>SUM(AA5:AA33)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="99">
+        <f>SUM(AB5:AB33)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="99">
+        <f t="shared" ref="AC34:AL34" si="4">SUM(AC5:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="98">
+        <f>SUM(AM5:AM33)</f>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="95">
+        <f>SUM(AN5:AN33)</f>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="99">
+        <f>SUM(AO5:AO33)</f>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="95">
+        <f>SUM(AP5:AP33)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="160">
+        <f>SUM(AQ5:AQ33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="100"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+    </row>
+    <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="101"/>
+      <c r="B36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="138"/>
+      <c r="Q36" s="138"/>
+      <c r="R36" s="138"/>
+      <c r="S36" s="138"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="138"/>
+      <c r="V36" s="138"/>
+      <c r="W36" s="138"/>
+      <c r="X36" s="138"/>
+      <c r="Y36" s="138"/>
+      <c r="Z36" s="138"/>
+      <c r="AA36" s="138"/>
+      <c r="AB36" s="138"/>
+    </row>
+    <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="109"/>
+      <c r="B37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="136"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="136"/>
+      <c r="U37" s="136"/>
+      <c r="V37" s="136"/>
+      <c r="W37" s="136"/>
+      <c r="X37" s="136"/>
+      <c r="Y37" s="136"/>
+      <c r="Z37" s="136"/>
+      <c r="AA37" s="136"/>
+      <c r="AB37" s="136"/>
+    </row>
+    <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="110"/>
+      <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
+      <c r="O38" s="136"/>
+      <c r="P38" s="136"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="136"/>
+      <c r="S38" s="136"/>
+      <c r="T38" s="136"/>
+      <c r="U38" s="136"/>
+      <c r="V38" s="136"/>
+      <c r="W38" s="136"/>
+      <c r="X38" s="136"/>
+      <c r="Y38" s="136"/>
+      <c r="Z38" s="136"/>
+      <c r="AA38" s="136"/>
+      <c r="AB38" s="136"/>
+    </row>
+    <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="12"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="12"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="14"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H44" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I37:AB38"/>
+    <mergeCell ref="I36:AB36"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.35433070866141736" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.43307086614173229"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;"Letter Gothic,Standard"&amp;9&amp;F, &amp;D&amp;C&amp;"Letter Gothic,Standard"&amp;9Seite &amp;P&amp;R&amp;"Letter Gothic,Standard"&amp;9ICT-Berufsbildung</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.58203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="104" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="143"/>
       <c r="B1" s="143"/>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -3041,2166 +5272,10 @@
       <c r="L1" s="143"/>
       <c r="M1" s="143"/>
       <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-    </row>
-    <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="145" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="144" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="144" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="144" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="144" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="144" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="145"/>
-      <c r="AK3" s="145"/>
-      <c r="AL3" s="146"/>
-      <c r="AM3" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN3" s="145"/>
-      <c r="AO3" s="145"/>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="147"/>
-    </row>
-    <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="101">
-        <v>43073</v>
-      </c>
-      <c r="J4" s="25">
-        <v>43074</v>
-      </c>
-      <c r="K4" s="25">
-        <f>J4+1</f>
-        <v>43075</v>
-      </c>
-      <c r="L4" s="26">
-        <f>K4+1</f>
-        <v>43076</v>
-      </c>
-      <c r="M4" s="27">
-        <f>L4+1</f>
-        <v>43077</v>
-      </c>
-      <c r="N4" s="28">
-        <f>M4+3</f>
-        <v>43080</v>
-      </c>
-      <c r="O4" s="25">
-        <f>N4+1</f>
-        <v>43081</v>
-      </c>
-      <c r="P4" s="25">
-        <f>O4+1</f>
-        <v>43082</v>
-      </c>
-      <c r="Q4" s="25">
-        <f>P4+1</f>
-        <v>43083</v>
-      </c>
-      <c r="R4" s="29">
-        <f>Q4+1</f>
-        <v>43084</v>
-      </c>
-      <c r="S4" s="28">
-        <f>R4+3</f>
-        <v>43087</v>
-      </c>
-      <c r="T4" s="25">
-        <f>S4+1</f>
-        <v>43088</v>
-      </c>
-      <c r="U4" s="25">
-        <f>T4+1</f>
-        <v>43089</v>
-      </c>
-      <c r="V4" s="25">
-        <f>U4+1</f>
-        <v>43090</v>
-      </c>
-      <c r="W4" s="29">
-        <f>V4+1</f>
-        <v>43091</v>
-      </c>
-      <c r="X4" s="28">
-        <f>W4+3</f>
-        <v>43094</v>
-      </c>
-      <c r="Y4" s="25">
-        <f>X4+1</f>
-        <v>43095</v>
-      </c>
-      <c r="Z4" s="25">
-        <f>Y4+1</f>
-        <v>43096</v>
-      </c>
-      <c r="AA4" s="25">
-        <f>Z4+1</f>
-        <v>43097</v>
-      </c>
-      <c r="AB4" s="29">
-        <f>AA4+1</f>
-        <v>43098</v>
-      </c>
-      <c r="AC4" s="28">
-        <f>AB4+3</f>
-        <v>43101</v>
-      </c>
-      <c r="AD4" s="25">
-        <f>AC4+1</f>
-        <v>43102</v>
-      </c>
-      <c r="AE4" s="25">
-        <f>AD4+1</f>
-        <v>43103</v>
-      </c>
-      <c r="AF4" s="25">
-        <f>AE4+1</f>
-        <v>43104</v>
-      </c>
-      <c r="AG4" s="26">
-        <f>AF4+1</f>
-        <v>43105</v>
-      </c>
-      <c r="AH4" s="28">
-        <f>AG4+3</f>
-        <v>43108</v>
-      </c>
-      <c r="AI4" s="30">
-        <f>AH4+1</f>
-        <v>43109</v>
-      </c>
-      <c r="AJ4" s="30">
-        <f>AI4+1</f>
-        <v>43110</v>
-      </c>
-      <c r="AK4" s="30">
-        <f>AJ4+1</f>
-        <v>43111</v>
-      </c>
-      <c r="AL4" s="27">
-        <f>AK4+1</f>
-        <v>43112</v>
-      </c>
-      <c r="AM4" s="26">
-        <f>AL4+3</f>
-        <v>43115</v>
-      </c>
-      <c r="AN4" s="30">
-        <f>AM4+1</f>
-        <v>43116</v>
-      </c>
-      <c r="AO4" s="30">
-        <f>AN4+1</f>
-        <v>43117</v>
-      </c>
-      <c r="AP4" s="30">
-        <f>AO4+1</f>
-        <v>43118</v>
-      </c>
-      <c r="AQ4" s="65">
-        <f>AP4+1</f>
-        <v>43119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85">
-        <v>10</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="88">
-        <f>SUM(C6:C10)</f>
-        <v>9</v>
-      </c>
-      <c r="D5" s="89">
-        <f>SUM(D6:D10)</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="96"/>
-      <c r="AJ5" s="96"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="96"/>
-      <c r="AO5" s="96"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="98"/>
-    </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="60">
-        <v>11</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="32">
-        <v>2</v>
-      </c>
-      <c r="D6" s="33" t="str">
-        <f>IF(SUM(I6:AB6)=0," ",SUM(I6:AB6))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" s="31">
-        <v>1</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="137"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="136"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="117"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="67"/>
-    </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60">
-        <v>12</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="39">
-        <v>3</v>
-      </c>
-      <c r="D7" s="33" t="str">
-        <f t="shared" ref="D7:D10" si="0">IF(SUM(I7:AB7)=0," ",SUM(I7:AB7))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" s="38">
-        <v>1</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="134"/>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="134"/>
-      <c r="AH7" s="136"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="69"/>
-    </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="60">
-        <v>13</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="39">
-        <v>4</v>
-      </c>
-      <c r="D8" s="33" t="str">
-        <f>IF(SUM(I8:AQ8)=0," ",SUM(I8:AQ8))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="38">
-        <v>1</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="136"/>
-      <c r="AI8" s="129"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="131"/>
-      <c r="AM8" s="128"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="119"/>
-    </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="60"/>
-      <c r="B9" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="33">
-        <f t="shared" ref="D9:D10" si="1">IF(SUM(I9:AQ9)=0," ",SUM(I9:AQ9))</f>
-        <v>0.6</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="119">
-        <v>0.6</v>
-      </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="120"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="134"/>
-      <c r="AH9" s="136"/>
-      <c r="AI9" s="129"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="132"/>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="117"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="70"/>
-    </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="60">
-        <v>15</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="33">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E10" s="45">
-        <v>1</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="134"/>
-      <c r="AH10" s="136"/>
-      <c r="AI10" s="129"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="132"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="119">
-        <v>4</v>
-      </c>
-      <c r="AP10" s="141"/>
-      <c r="AQ10" s="70"/>
-    </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="85">
-        <v>20</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="99">
-        <f>SUM(C12:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="88">
-        <f>SUM(D12:D15)</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="98"/>
-    </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61">
-        <v>21</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="53">
-        <f>IF(SUM(I12:AQ12)=0," ",SUM(I12:AQ12))</f>
-        <v>5</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="119">
-        <v>4</v>
-      </c>
-      <c r="L12" s="121"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="119">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="129"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="72"/>
-      <c r="AU12"/>
-    </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61">
-        <v>22</v>
-      </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="53" t="str">
-        <f t="shared" ref="D13:D15" si="2">IF(SUM(I13:AQ13)=0," ",SUM(I13:AQ13))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="120"/>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="134"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="129"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="128"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="72"/>
-    </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="61">
-        <v>23</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="53" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="134"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="129"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="128"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="72"/>
-    </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61">
-        <v>24</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="53" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="134"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="120"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="129"/>
-      <c r="AJ15" s="36"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="53"/>
-      <c r="AQ15" s="72"/>
-    </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="85">
-        <v>30</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="88">
-        <f>SUM(C17:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="89">
-        <f>SUM(D17:D23)</f>
-        <v>23</v>
-      </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="90"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="98"/>
-    </row>
-    <row r="17" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61">
-        <v>31</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="53">
-        <f>IF(SUM(I17:AB17)=0," ",SUM(I17:AB17))</f>
-        <v>23</v>
-      </c>
-      <c r="E17" s="31">
-        <v>1</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="119">
-        <v>8</v>
-      </c>
-      <c r="R17" s="119">
-        <v>7</v>
-      </c>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="119">
-        <v>8</v>
-      </c>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="134"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="120"/>
-      <c r="AE17" s="120"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="134"/>
-      <c r="AH17" s="136"/>
-      <c r="AI17" s="129"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="53"/>
-      <c r="AQ17" s="72"/>
-    </row>
-    <row r="18" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61">
-        <v>32</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="31">
-        <v>1</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="134"/>
-      <c r="AC18" s="138"/>
-      <c r="AD18" s="120"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="134"/>
-      <c r="AH18" s="136"/>
-      <c r="AI18" s="129"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="53"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="53"/>
-      <c r="AQ18" s="72"/>
-    </row>
-    <row r="19" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61">
-        <v>33</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="31">
-        <v>1</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="120"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="134"/>
-      <c r="AH19" s="136"/>
-      <c r="AI19" s="129"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="117"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="53"/>
-      <c r="AQ19" s="72"/>
-    </row>
-    <row r="20" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61">
-        <v>34</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="31">
-        <v>1</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="120"/>
-      <c r="AE20" s="120"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="134"/>
-      <c r="AH20" s="136"/>
-      <c r="AI20" s="129"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="53"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="128"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="72"/>
-    </row>
-    <row r="21" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61">
-        <v>35</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="31">
-        <v>1</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="134"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="120"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="134"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="129"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="117"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="72"/>
-    </row>
-    <row r="22" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="61">
-        <v>36</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="31">
-        <v>1</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="134"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="120"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="120"/>
-      <c r="AG22" s="134"/>
-      <c r="AH22" s="136"/>
-      <c r="AI22" s="129"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="72"/>
-    </row>
-    <row r="23" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="61">
-        <v>37</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="33" t="str">
-        <f>IF(SUM(I23:AB23)=0," ",SUM(I23:AB23))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E23" s="38">
-        <v>1</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="120"/>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="120"/>
-      <c r="AE23" s="120"/>
-      <c r="AF23" s="120"/>
-      <c r="AG23" s="134"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="129"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="132"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="117"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="70"/>
-    </row>
-    <row r="24" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="85">
-        <v>40</v>
-      </c>
-      <c r="B24" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="88">
-        <f>SUM(C25:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="89">
-        <f>SUM(D25:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="96"/>
-      <c r="AK24" s="97"/>
-      <c r="AL24" s="90"/>
-      <c r="AM24" s="95"/>
-      <c r="AN24" s="96"/>
-      <c r="AO24" s="96"/>
-      <c r="AP24" s="97"/>
-      <c r="AQ24" s="98"/>
-    </row>
-    <row r="25" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="61">
-        <v>40</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="53" t="str">
-        <f>IF(SUM(I25:AB25)=0," ",SUM(I25:AB25))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E25" s="31">
-        <v>1</v>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="120"/>
-      <c r="AF25" s="120"/>
-      <c r="AG25" s="134"/>
-      <c r="AH25" s="136"/>
-      <c r="AI25" s="129"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="133"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="117"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="75"/>
-    </row>
-    <row r="26" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="61">
-        <v>41</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="53" t="str">
-        <f>IF(SUM(I26:AB26)=0," ",SUM(I26:AB26))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E26" s="31">
-        <v>1</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="120"/>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="134"/>
-      <c r="AH26" s="136"/>
-      <c r="AI26" s="129"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="76"/>
-    </row>
-    <row r="27" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="61">
-        <v>42</v>
-      </c>
-      <c r="B27" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53" t="str">
-        <f>IF(SUM(I27:AB27)=0," ",SUM(I27:AB27))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E27" s="55">
-        <v>1</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="134"/>
-      <c r="AH27" s="136"/>
-      <c r="AI27" s="129"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="117"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="69"/>
-    </row>
-    <row r="28" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="85">
-        <v>50</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="88">
-        <f>SUM(C29:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="89">
-        <f>SUM(D29:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="96"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="96"/>
-      <c r="AJ28" s="96"/>
-      <c r="AK28" s="97"/>
-      <c r="AL28" s="90"/>
-      <c r="AM28" s="95"/>
-      <c r="AN28" s="96"/>
-      <c r="AO28" s="96"/>
-      <c r="AP28" s="97"/>
-      <c r="AQ28" s="98"/>
-    </row>
-    <row r="29" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="62">
-        <v>51</v>
-      </c>
-      <c r="B29" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="31">
-        <v>3</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="120"/>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="134"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="129"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="133"/>
-      <c r="AM29" s="128"/>
-      <c r="AN29" s="117"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="119">
-        <v>8</v>
-      </c>
-      <c r="AQ29" s="75"/>
-    </row>
-    <row r="30" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="62">
-        <v>52</v>
-      </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="57" t="str">
-        <f>IF(SUM(I30:AB30)=0," ",SUM(I30:AB30))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="139"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="129"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="117"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="69"/>
-    </row>
-    <row r="31" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="85">
-        <v>60</v>
-      </c>
-      <c r="B31" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="88">
-        <f>SUM(C32:C33)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="89">
-        <f>SUM(D32:D33)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="96"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="96"/>
-      <c r="AJ31" s="96"/>
-      <c r="AK31" s="97"/>
-      <c r="AL31" s="90"/>
-      <c r="AM31" s="95"/>
-      <c r="AN31" s="96"/>
-      <c r="AO31" s="96"/>
-      <c r="AP31" s="97"/>
-      <c r="AQ31" s="98"/>
-    </row>
-    <row r="32" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="61">
-        <v>61</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="53" t="str">
-        <f>IF(SUM(I32:AB32)=0," ",SUM(I32:AB32))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E32" s="31">
-        <v>2</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="137"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="129"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="117"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="76"/>
-    </row>
-    <row r="33" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="60">
-        <v>62</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="33" t="str">
-        <f>IF(SUM(I33:AB33)=0," ",SUM(I33:AB33))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E33" s="38">
-        <v>1</v>
-      </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="139"/>
-      <c r="AD33" s="120"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="134"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="129"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="117"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="76"/>
-    </row>
-    <row r="34" spans="1:43" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="84"/>
-      <c r="B34" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="103">
-        <f>SUM(C5+C11+C16+C24+C28+C31)</f>
-        <v>9</v>
-      </c>
-      <c r="D34" s="103">
-        <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>32.6</v>
-      </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106">
-        <f t="shared" ref="I34:AB34" si="3">SUM(I5:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="107">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="107">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="Q34" s="103">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="R34" s="107">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="S34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="107">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="V34" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="107">
-        <f t="shared" ref="AC34:AL34" si="4">SUM(AC5:AC33)</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="103">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="107">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="103">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="135">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="107">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="103">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="107">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="103">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL34" s="107">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM34" s="106">
-        <f>SUM(AM5:AM33)</f>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="103">
-        <f>SUM(AN5:AN33)</f>
-        <v>0</v>
-      </c>
-      <c r="AO34" s="107">
-        <f>SUM(AO5:AO33)</f>
-        <v>4</v>
-      </c>
-      <c r="AP34" s="103">
-        <f>SUM(AP5:AP33)</f>
-        <v>8</v>
-      </c>
-      <c r="AQ34" s="108">
-        <f>SUM(AQ5:AQ33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="109"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-    </row>
-    <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="110"/>
-      <c r="B36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="150"/>
-      <c r="P36" s="150"/>
-      <c r="Q36" s="150"/>
-      <c r="R36" s="150"/>
-      <c r="S36" s="150"/>
-      <c r="T36" s="150"/>
-      <c r="U36" s="150"/>
-      <c r="V36" s="150"/>
-      <c r="W36" s="150"/>
-      <c r="X36" s="150"/>
-      <c r="Y36" s="150"/>
-      <c r="Z36" s="150"/>
-      <c r="AA36" s="150"/>
-      <c r="AB36" s="150"/>
-    </row>
-    <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="118"/>
-      <c r="B37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
-      <c r="N37" s="148"/>
-      <c r="O37" s="148"/>
-      <c r="P37" s="148"/>
-      <c r="Q37" s="148"/>
-      <c r="R37" s="148"/>
-      <c r="S37" s="148"/>
-      <c r="T37" s="148"/>
-      <c r="U37" s="148"/>
-      <c r="V37" s="148"/>
-      <c r="W37" s="148"/>
-      <c r="X37" s="148"/>
-      <c r="Y37" s="148"/>
-      <c r="Z37" s="148"/>
-      <c r="AA37" s="148"/>
-      <c r="AB37" s="148"/>
-    </row>
-    <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="119" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
-      <c r="N38" s="148"/>
-      <c r="O38" s="148"/>
-      <c r="P38" s="148"/>
-      <c r="Q38" s="148"/>
-      <c r="R38" s="148"/>
-      <c r="S38" s="148"/>
-      <c r="T38" s="148"/>
-      <c r="U38" s="148"/>
-      <c r="V38" s="148"/>
-      <c r="W38" s="148"/>
-      <c r="X38" s="148"/>
-      <c r="Y38" s="148"/>
-      <c r="Z38" s="148"/>
-      <c r="AA38" s="148"/>
-      <c r="AB38" s="148"/>
-    </row>
-    <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="12"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
-      <c r="B40" s="12"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H44" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="I37:AB38"/>
-    <mergeCell ref="I36:AB36"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.35433070866141736" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.43307086614173229"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Letter Gothic,Standard"&amp;9&amp;F, &amp;D&amp;C&amp;"Letter Gothic,Standard"&amp;9Seite &amp;P&amp;R&amp;"Letter Gothic,Standard"&amp;9ICT-Berufsbildung</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:N43"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.58203125" style="115" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="113" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5215,309 +5290,309 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="107" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="114">
+      <c r="A4" s="105">
         <f>Zeitplanung!I$4</f>
         <v>43073</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="103">
         <f>Zeitplanung!I34</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="114">
+      <c r="A5" s="105">
         <f>Zeitplanung!J$4</f>
         <v>43074</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="103">
         <f>Zeitplanung!J34</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="114">
+      <c r="A6" s="105">
         <f>Zeitplanung!K$4</f>
         <v>43075</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="103">
         <f>Zeitplanung!K34</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="114">
+      <c r="A7" s="105">
         <f>Zeitplanung!L$4</f>
         <v>43076</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="103">
         <f>Zeitplanung!L34</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="114">
+      <c r="A8" s="105">
         <f>Zeitplanung!M$4</f>
         <v>43077</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="103">
         <f>Zeitplanung!M34</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="114">
+      <c r="A9" s="105">
         <f>Zeitplanung!N$4</f>
         <v>43080</v>
       </c>
-      <c r="B9" s="112">
+      <c r="B9" s="103">
         <f>Zeitplanung!N34</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="114">
+      <c r="A10" s="105">
         <f>Zeitplanung!O$4</f>
         <v>43081</v>
       </c>
-      <c r="B10" s="112">
+      <c r="B10" s="103">
         <f>Zeitplanung!O34</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="114">
+      <c r="A11" s="105">
         <f>Zeitplanung!P$4</f>
         <v>43082</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="103">
         <f>Zeitplanung!P34</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="114">
+      <c r="A12" s="105">
         <f>Zeitplanung!Q$4</f>
         <v>43083</v>
       </c>
-      <c r="B12" s="112">
+      <c r="B12" s="103">
         <f>Zeitplanung!Q34</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="114">
+      <c r="A13" s="105">
         <f>Zeitplanung!R$4</f>
         <v>43084</v>
       </c>
-      <c r="B13" s="112">
+      <c r="B13" s="103">
         <f>Zeitplanung!R34</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="114">
+      <c r="A14" s="105">
         <f>Zeitplanung!S$4</f>
         <v>43087</v>
       </c>
-      <c r="B14" s="112">
+      <c r="B14" s="103">
         <f>Zeitplanung!S34</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="114">
+      <c r="A15" s="105">
         <f>Zeitplanung!T$4</f>
         <v>43088</v>
       </c>
-      <c r="B15" s="112">
+      <c r="B15" s="103">
         <f>Zeitplanung!T34</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="114">
+      <c r="A16" s="105">
         <f>Zeitplanung!U$4</f>
         <v>43089</v>
       </c>
-      <c r="B16" s="112">
+      <c r="B16" s="103">
         <f>Zeitplanung!U34</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="114">
+      <c r="A17" s="105">
         <f>Zeitplanung!V$4</f>
         <v>43090</v>
       </c>
-      <c r="B17" s="112">
+      <c r="B17" s="103">
         <f>Zeitplanung!V34</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="114">
+      <c r="A18" s="105">
         <f>Zeitplanung!W$4</f>
         <v>43091</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="103">
         <f>Zeitplanung!W34</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="114">
+      <c r="A19" s="105">
         <f>Zeitplanung!X$4</f>
         <v>43094</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="103">
         <f>Zeitplanung!X34</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="114">
+      <c r="A20" s="105">
         <f>Zeitplanung!Y$4</f>
         <v>43095</v>
       </c>
-      <c r="B20" s="112">
+      <c r="B20" s="103">
         <f>Zeitplanung!Y34</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="114">
+      <c r="A21" s="105">
         <f>Zeitplanung!Z$4</f>
         <v>43096</v>
       </c>
-      <c r="B21" s="112">
+      <c r="B21" s="103">
         <f>Zeitplanung!Z34</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="114">
+      <c r="A22" s="105">
         <f>Zeitplanung!AA$4</f>
         <v>43097</v>
       </c>
-      <c r="B22" s="112">
+      <c r="B22" s="103">
         <f>Zeitplanung!AA34</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="114">
+      <c r="A23" s="105">
         <f>Zeitplanung!AB$4</f>
         <v>43098</v>
       </c>
-      <c r="B23" s="112">
+      <c r="B23" s="103">
         <f>Zeitplanung!AB34</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="114">
+      <c r="A24" s="105">
         <f>Zeitplanung!AC$4</f>
         <v>43101</v>
       </c>
-      <c r="B24" s="112">
+      <c r="B24" s="103">
         <f>Zeitplanung!AC34</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="114">
+      <c r="A25" s="105">
         <f>Zeitplanung!AD$4</f>
         <v>43102</v>
       </c>
-      <c r="B25" s="112">
+      <c r="B25" s="103">
         <f>Zeitplanung!AD34</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="114">
+      <c r="A26" s="105">
         <f>Zeitplanung!AE$4</f>
         <v>43103</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="103">
         <f>Zeitplanung!AE34</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="114">
+      <c r="A27" s="105">
         <f>Zeitplanung!AF$4</f>
         <v>43104</v>
       </c>
-      <c r="B27" s="112">
+      <c r="B27" s="103">
         <f>Zeitplanung!AF34</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="114">
+      <c r="A28" s="105">
         <f>Zeitplanung!AG$4</f>
         <v>43105</v>
       </c>
-      <c r="B28" s="112">
+      <c r="B28" s="103">
         <f>Zeitplanung!AG34</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="114">
+      <c r="A29" s="105">
         <f>Zeitplanung!AH$4</f>
         <v>43108</v>
       </c>
-      <c r="B29" s="112">
+      <c r="B29" s="103">
         <f>Zeitplanung!AH34</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="114">
+      <c r="A30" s="105">
         <f>Zeitplanung!AI$4</f>
         <v>43109</v>
       </c>
-      <c r="B30" s="112">
+      <c r="B30" s="103">
         <f>Zeitplanung!AI34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="114">
+      <c r="A31" s="105">
         <f>Zeitplanung!AJ$4</f>
         <v>43110</v>
       </c>
-      <c r="B31" s="112">
+      <c r="B31" s="103">
         <f>Zeitplanung!AJ34</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="114">
+      <c r="A32" s="105">
         <f>Zeitplanung!AK$4</f>
         <v>43111</v>
       </c>
-      <c r="B32" s="112">
+      <c r="B32" s="103">
         <f>Zeitplanung!AK34</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="114">
+      <c r="A33" s="105">
         <f>Zeitplanung!AL$4</f>
         <v>43112</v>
       </c>
-      <c r="B33" s="112">
+      <c r="B33" s="103">
         <f>Zeitplanung!AL34</f>
         <v>0</v>
       </c>
@@ -5525,10 +5600,10 @@
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="154" t="s">
+      <c r="A36" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="155"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
@@ -5537,85 +5612,85 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="151" t="s">
+      <c r="A37" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="152"/>
-      <c r="C37" s="112">
+      <c r="B37" s="142"/>
+      <c r="C37" s="103">
         <f>Zeitplanung!C5</f>
-        <v>9</v>
-      </c>
-      <c r="D37" s="112">
+        <v>12.6</v>
+      </c>
+      <c r="D37" s="103">
         <f>Zeitplanung!D5</f>
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="156" t="s">
+      <c r="A38" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="157"/>
-      <c r="C38" s="112">
+      <c r="B38" s="147"/>
+      <c r="C38" s="103">
         <f>Zeitplanung!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="112">
+        <v>5</v>
+      </c>
+      <c r="D38" s="103">
         <f>Zeitplanung!D11</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="152"/>
-      <c r="C39" s="112">
+      <c r="B39" s="142"/>
+      <c r="C39" s="103">
         <f>Zeitplanung!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="112">
+        <v>65</v>
+      </c>
+      <c r="D39" s="103">
         <f>Zeitplanung!D16</f>
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="157"/>
-      <c r="C40" s="112">
+      <c r="B40" s="147"/>
+      <c r="C40" s="103">
         <f>Zeitplanung!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="112">
+        <v>3</v>
+      </c>
+      <c r="D40" s="103">
         <f>Zeitplanung!D24</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="151" t="s">
+      <c r="A41" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="152"/>
-      <c r="C41" s="112">
+      <c r="B41" s="142"/>
+      <c r="C41" s="103">
         <f>Zeitplanung!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="112">
+        <v>8</v>
+      </c>
+      <c r="D41" s="103">
         <f>Zeitplanung!D28</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="151" t="s">
+      <c r="A42" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="112">
+      <c r="B42" s="142"/>
+      <c r="C42" s="103">
         <f>Zeitplanung!C31</f>
         <v>0</v>
       </c>
-      <c r="D42" s="112">
+      <c r="D42" s="103">
         <f>Zeitplanung!D31</f>
         <v>0</v>
       </c>

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -1949,16 +1949,65 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="72" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="73" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1970,12 +2019,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1993,49 +2036,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="72" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="73" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2234,7 +2234,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2249,7 +2249,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2531,10 +2531,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3052,58 +3052,58 @@
   </sheetPr>
   <dimension ref="A1:AU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" style="15" customWidth="1"/>
-    <col min="5" max="7" width="3.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="3.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.875" style="15" customWidth="1"/>
+    <col min="5" max="7" width="3.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.875" style="16" customWidth="1"/>
     <col min="9" max="28" width="3.25" style="5" customWidth="1"/>
     <col min="29" max="33" width="3.25" style="4" customWidth="1"/>
-    <col min="34" max="38" width="3.08203125" style="4" customWidth="1"/>
+    <col min="34" max="38" width="3.125" style="4" customWidth="1"/>
     <col min="39" max="43" width="2.75" style="5" customWidth="1"/>
     <col min="44" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-    </row>
-    <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+    </row>
+    <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3113,68 +3113,68 @@
       <c r="G2" s="4"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="132"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="134" t="s">
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="134" t="s">
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="134" t="s">
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="134" t="s">
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="134" t="s">
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
+      <c r="AH3" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="132" t="s">
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="151"/>
+      <c r="AM3" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="133"/>
-    </row>
-    <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="150"/>
+      <c r="AP3" s="150"/>
+      <c r="AQ3" s="152"/>
+    </row>
+    <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
@@ -3331,12 +3331,12 @@
         <f>AO4+1</f>
         <v>43118</v>
       </c>
-      <c r="AQ4" s="152">
+      <c r="AQ4" s="136">
         <f>AP4+1</f>
         <v>43119</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="78">
         <v>10</v>
       </c>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="D5" s="82">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="84"/>
@@ -3389,9 +3389,9 @@
       <c r="AN5" s="89"/>
       <c r="AO5" s="89"/>
       <c r="AP5" s="90"/>
-      <c r="AQ5" s="153"/>
-    </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ5" s="137"/>
+    </row>
+    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60">
         <v>11</v>
       </c>
@@ -3401,9 +3401,9 @@
       <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="33" t="str">
+      <c r="D6" s="33">
         <f>IF(SUM(I6:AB6)=0," ",SUM(I6:AB6))</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="E6" s="31">
         <v>1</v>
@@ -3413,7 +3413,9 @@
       <c r="H6" s="72"/>
       <c r="I6" s="108"/>
       <c r="J6" s="108"/>
-      <c r="K6" s="110"/>
+      <c r="K6" s="110">
+        <v>2</v>
+      </c>
       <c r="L6" s="112"/>
       <c r="M6" s="113"/>
       <c r="N6" s="108"/>
@@ -3445,9 +3447,9 @@
       <c r="AN6" s="108"/>
       <c r="AO6" s="36"/>
       <c r="AP6" s="36"/>
-      <c r="AQ6" s="154"/>
-    </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ6" s="138"/>
+    </row>
+    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>12</v>
       </c>
@@ -3457,9 +3459,9 @@
       <c r="C7" s="39">
         <v>3</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="33">
         <f t="shared" ref="D7" si="0">IF(SUM(I7:AB7)=0," ",SUM(I7:AB7))</f>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="E7" s="38">
         <v>1</v>
@@ -3474,7 +3476,9 @@
       <c r="M7" s="113"/>
       <c r="N7" s="108"/>
       <c r="O7" s="108"/>
-      <c r="P7" s="110"/>
+      <c r="P7" s="110">
+        <v>3</v>
+      </c>
       <c r="Q7" s="42"/>
       <c r="R7" s="43"/>
       <c r="S7" s="119"/>
@@ -3501,9 +3505,9 @@
       <c r="AN7" s="108"/>
       <c r="AO7" s="42"/>
       <c r="AP7" s="42"/>
-      <c r="AQ7" s="155"/>
-    </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ7" s="139"/>
+    </row>
+    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>13</v>
       </c>
@@ -3557,10 +3561,10 @@
       <c r="AN8" s="108"/>
       <c r="AO8" s="42"/>
       <c r="AP8" s="33"/>
-      <c r="AQ8" s="161"/>
-      <c r="AR8" s="162"/>
-    </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ8" s="145"/>
+      <c r="AR8" s="146"/>
+    </row>
+    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>14</v>
       </c>
@@ -3570,9 +3574,9 @@
       <c r="C9" s="39">
         <v>0.6</v>
       </c>
-      <c r="D9" s="33" t="str">
+      <c r="D9" s="33">
         <f t="shared" ref="D9:D10" si="1">IF(SUM(I9:AQ9)=0," ",SUM(I9:AQ9))</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="E9" s="38">
         <v>1</v>
@@ -3587,7 +3591,9 @@
       <c r="M9" s="113"/>
       <c r="N9" s="108"/>
       <c r="O9" s="108"/>
-      <c r="P9" s="110"/>
+      <c r="P9" s="110">
+        <v>1</v>
+      </c>
       <c r="Q9" s="42"/>
       <c r="R9" s="43"/>
       <c r="S9" s="119"/>
@@ -3614,9 +3620,9 @@
       <c r="AN9" s="108"/>
       <c r="AO9" s="42"/>
       <c r="AP9" s="33"/>
-      <c r="AQ9" s="156"/>
-    </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ9" s="140"/>
+    </row>
+    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="60">
         <v>15</v>
       </c>
@@ -3669,10 +3675,10 @@
       <c r="AM10" s="119"/>
       <c r="AN10" s="108"/>
       <c r="AO10" s="110"/>
-      <c r="AP10" s="148"/>
-      <c r="AQ10" s="157"/>
-    </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AP10" s="132"/>
+      <c r="AQ10" s="141"/>
+    </row>
+    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78">
         <v>20</v>
       </c>
@@ -3685,7 +3691,7 @@
       </c>
       <c r="D11" s="81">
         <f>SUM(D12:D15)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
@@ -3725,9 +3731,9 @@
       <c r="AN11" s="89"/>
       <c r="AO11" s="89"/>
       <c r="AP11" s="90"/>
-      <c r="AQ11" s="153"/>
-    </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ11" s="137"/>
+    </row>
+    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>21</v>
       </c>
@@ -3737,9 +3743,9 @@
       <c r="C12" s="32">
         <v>5</v>
       </c>
-      <c r="D12" s="53" t="str">
+      <c r="D12" s="53">
         <f>IF(SUM(I12:AQ12)=0," ",SUM(I12:AQ12))</f>
-        <v xml:space="preserve"> </v>
+        <v>8</v>
       </c>
       <c r="E12" s="31">
         <v>1</v>
@@ -3749,20 +3755,24 @@
       <c r="H12" s="73"/>
       <c r="I12" s="108"/>
       <c r="J12" s="108"/>
-      <c r="K12" s="110"/>
+      <c r="K12" s="110">
+        <v>5</v>
+      </c>
       <c r="L12" s="112"/>
       <c r="M12" s="113"/>
       <c r="N12" s="108"/>
       <c r="O12" s="108"/>
-      <c r="P12" s="110"/>
+      <c r="P12" s="110">
+        <v>3</v>
+      </c>
       <c r="Q12" s="36"/>
-      <c r="R12" s="149"/>
+      <c r="R12" s="133"/>
       <c r="S12" s="119"/>
       <c r="T12" s="108"/>
       <c r="U12" s="35"/>
       <c r="V12" s="36"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="150"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="134"/>
       <c r="Y12" s="111"/>
       <c r="Z12" s="111"/>
       <c r="AA12" s="111"/>
@@ -3781,10 +3791,10 @@
       <c r="AN12" s="108"/>
       <c r="AO12" s="36"/>
       <c r="AP12" s="53"/>
-      <c r="AQ12" s="156"/>
+      <c r="AQ12" s="140"/>
       <c r="AU12"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>22</v>
       </c>
@@ -3807,12 +3817,12 @@
       <c r="O13" s="108"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
-      <c r="R13" s="149"/>
+      <c r="R13" s="133"/>
       <c r="S13" s="119"/>
       <c r="T13" s="108"/>
       <c r="U13" s="35"/>
       <c r="V13" s="36"/>
-      <c r="W13" s="149"/>
+      <c r="W13" s="133"/>
       <c r="X13" s="111"/>
       <c r="Y13" s="111"/>
       <c r="Z13" s="111"/>
@@ -3832,9 +3842,9 @@
       <c r="AN13" s="108"/>
       <c r="AO13" s="36"/>
       <c r="AP13" s="53"/>
-      <c r="AQ13" s="156"/>
-    </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ13" s="140"/>
+    </row>
+    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>23</v>
       </c>
@@ -3857,12 +3867,12 @@
       <c r="O14" s="108"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="36"/>
-      <c r="R14" s="149"/>
+      <c r="R14" s="133"/>
       <c r="S14" s="119"/>
       <c r="T14" s="108"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
-      <c r="W14" s="149"/>
+      <c r="W14" s="133"/>
       <c r="X14" s="111"/>
       <c r="Y14" s="111"/>
       <c r="Z14" s="111"/>
@@ -3882,9 +3892,9 @@
       <c r="AN14" s="108"/>
       <c r="AO14" s="36"/>
       <c r="AP14" s="53"/>
-      <c r="AQ14" s="156"/>
-    </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ14" s="140"/>
+    </row>
+    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>24</v>
       </c>
@@ -3907,13 +3917,13 @@
       <c r="O15" s="108"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="149"/>
+      <c r="R15" s="133"/>
       <c r="S15" s="119"/>
       <c r="T15" s="108"/>
       <c r="U15" s="35"/>
       <c r="V15" s="36"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="151"/>
+      <c r="W15" s="133"/>
+      <c r="X15" s="135"/>
       <c r="Y15" s="111"/>
       <c r="Z15" s="111"/>
       <c r="AA15" s="111"/>
@@ -3932,9 +3942,9 @@
       <c r="AN15" s="108"/>
       <c r="AO15" s="36"/>
       <c r="AP15" s="53"/>
-      <c r="AQ15" s="156"/>
-    </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ15" s="140"/>
+    </row>
+    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78">
         <v>30</v>
       </c>
@@ -3987,9 +3997,9 @@
       <c r="AN16" s="89"/>
       <c r="AO16" s="89"/>
       <c r="AP16" s="90"/>
-      <c r="AQ16" s="153"/>
-    </row>
-    <row r="17" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ16" s="137"/>
+    </row>
+    <row r="17" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>31</v>
       </c>
@@ -4007,7 +4017,9 @@
         <v>1</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="34">
+        <v>43091</v>
+      </c>
       <c r="H17" s="73"/>
       <c r="I17" s="108"/>
       <c r="J17" s="108"/>
@@ -4043,9 +4055,9 @@
       <c r="AN17" s="108"/>
       <c r="AO17" s="36"/>
       <c r="AP17" s="53"/>
-      <c r="AQ17" s="156"/>
-    </row>
-    <row r="18" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ17" s="140"/>
+    </row>
+    <row r="18" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>32</v>
       </c>
@@ -4099,9 +4111,9 @@
       <c r="AN18" s="108"/>
       <c r="AO18" s="36"/>
       <c r="AP18" s="53"/>
-      <c r="AQ18" s="156"/>
-    </row>
-    <row r="19" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ18" s="140"/>
+    </row>
+    <row r="19" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>33</v>
       </c>
@@ -4155,9 +4167,9 @@
       <c r="AN19" s="108"/>
       <c r="AO19" s="36"/>
       <c r="AP19" s="53"/>
-      <c r="AQ19" s="156"/>
-    </row>
-    <row r="20" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ19" s="140"/>
+    </row>
+    <row r="20" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>34</v>
       </c>
@@ -4175,7 +4187,9 @@
         <v>2</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="34">
+        <v>43110</v>
+      </c>
       <c r="H20" s="73"/>
       <c r="I20" s="108"/>
       <c r="J20" s="108"/>
@@ -4211,9 +4225,9 @@
       <c r="AN20" s="108"/>
       <c r="AO20" s="36"/>
       <c r="AP20" s="53"/>
-      <c r="AQ20" s="156"/>
-    </row>
-    <row r="21" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ20" s="140"/>
+    </row>
+    <row r="21" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>35</v>
       </c>
@@ -4267,9 +4281,9 @@
       <c r="AN21" s="108"/>
       <c r="AO21" s="36"/>
       <c r="AP21" s="53"/>
-      <c r="AQ21" s="156"/>
-    </row>
-    <row r="22" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ21" s="140"/>
+    </row>
+    <row r="22" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <v>36</v>
       </c>
@@ -4323,9 +4337,9 @@
       <c r="AN22" s="108"/>
       <c r="AO22" s="36"/>
       <c r="AP22" s="53"/>
-      <c r="AQ22" s="156"/>
-    </row>
-    <row r="23" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ22" s="140"/>
+    </row>
+    <row r="23" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61">
         <v>37</v>
       </c>
@@ -4343,7 +4357,9 @@
         <v>1</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="34"/>
+      <c r="G23" s="34">
+        <v>43112</v>
+      </c>
       <c r="H23" s="73"/>
       <c r="I23" s="108"/>
       <c r="J23" s="108"/>
@@ -4379,9 +4395,9 @@
       <c r="AN23" s="108"/>
       <c r="AO23" s="110"/>
       <c r="AP23" s="33"/>
-      <c r="AQ23" s="157"/>
-    </row>
-    <row r="24" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ23" s="141"/>
+    </row>
+    <row r="24" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <v>40</v>
       </c>
@@ -4434,9 +4450,9 @@
       <c r="AN24" s="89"/>
       <c r="AO24" s="89"/>
       <c r="AP24" s="90"/>
-      <c r="AQ24" s="153"/>
-    </row>
-    <row r="25" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ24" s="137"/>
+    </row>
+    <row r="25" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61">
         <v>40</v>
       </c>
@@ -4490,9 +4506,9 @@
       <c r="AN25" s="108"/>
       <c r="AO25" s="110"/>
       <c r="AP25" s="36"/>
-      <c r="AQ25" s="158"/>
-    </row>
-    <row r="26" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ25" s="142"/>
+    </row>
+    <row r="26" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61">
         <v>41</v>
       </c>
@@ -4546,9 +4562,9 @@
       <c r="AN26" s="108"/>
       <c r="AO26" s="110"/>
       <c r="AP26" s="42"/>
-      <c r="AQ26" s="159"/>
-    </row>
-    <row r="27" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ26" s="143"/>
+    </row>
+    <row r="27" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61">
         <v>42</v>
       </c>
@@ -4602,9 +4618,9 @@
       <c r="AN27" s="108"/>
       <c r="AO27" s="110"/>
       <c r="AP27" s="36"/>
-      <c r="AQ27" s="155"/>
-    </row>
-    <row r="28" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ27" s="139"/>
+    </row>
+    <row r="28" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <v>50</v>
       </c>
@@ -4657,9 +4673,9 @@
       <c r="AN28" s="89"/>
       <c r="AO28" s="89"/>
       <c r="AP28" s="90"/>
-      <c r="AQ28" s="153"/>
-    </row>
-    <row r="29" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ28" s="137"/>
+    </row>
+    <row r="29" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="62">
         <v>51</v>
       </c>
@@ -4710,9 +4726,9 @@
       <c r="AN29" s="108"/>
       <c r="AO29" s="36"/>
       <c r="AP29" s="110"/>
-      <c r="AQ29" s="158"/>
-    </row>
-    <row r="30" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ29" s="142"/>
+    </row>
+    <row r="30" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="62">
         <v>52</v>
       </c>
@@ -4760,9 +4776,9 @@
       <c r="AN30" s="108"/>
       <c r="AO30" s="56"/>
       <c r="AP30" s="56"/>
-      <c r="AQ30" s="155"/>
-    </row>
-    <row r="31" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ30" s="139"/>
+    </row>
+    <row r="31" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <v>60</v>
       </c>
@@ -4815,9 +4831,9 @@
       <c r="AN31" s="89"/>
       <c r="AO31" s="89"/>
       <c r="AP31" s="90"/>
-      <c r="AQ31" s="153"/>
-    </row>
-    <row r="32" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ31" s="137"/>
+    </row>
+    <row r="32" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61">
         <v>61</v>
       </c>
@@ -4869,9 +4885,9 @@
       <c r="AN32" s="108"/>
       <c r="AO32" s="36"/>
       <c r="AP32" s="36"/>
-      <c r="AQ32" s="159"/>
-    </row>
-    <row r="33" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ32" s="143"/>
+    </row>
+    <row r="33" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60">
         <v>62</v>
       </c>
@@ -4923,9 +4939,9 @@
       <c r="AN33" s="108"/>
       <c r="AO33" s="42"/>
       <c r="AP33" s="42"/>
-      <c r="AQ33" s="159"/>
-    </row>
-    <row r="34" spans="1:43" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AQ33" s="143"/>
+    </row>
+    <row r="34" spans="1:43" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="77"/>
       <c r="B34" s="94" t="s">
         <v>4</v>
@@ -4936,130 +4952,130 @@
       </c>
       <c r="D34" s="95">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
       <c r="G34" s="96"/>
       <c r="H34" s="97"/>
       <c r="I34" s="98">
-        <f>SUM(I5:I33)</f>
+        <f t="shared" ref="I34:AB34" si="4">SUM(I5:I33)</f>
         <v>0</v>
       </c>
       <c r="J34" s="95">
-        <f>SUM(J5:J33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K34" s="99">
-        <f>SUM(K5:K33)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="L34" s="99">
-        <f>SUM(L5:L33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M34" s="99">
-        <f>SUM(M5:M33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N34" s="99">
-        <f>SUM(N5:N33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O34" s="95">
-        <f>SUM(O5:O33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="99">
-        <f>SUM(P5:P33)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="Q34" s="95">
-        <f>SUM(Q5:Q33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R34" s="99">
-        <f>SUM(R5:R33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S34" s="98">
-        <f>SUM(S5:S33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T34" s="95">
-        <f>SUM(T5:T33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U34" s="99">
-        <f>SUM(U5:U33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V34" s="95">
-        <f>SUM(V5:V33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W34" s="99">
-        <f>SUM(W5:W33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X34" s="98">
-        <f>SUM(X5:X33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y34" s="95">
-        <f>SUM(Y5:Y33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z34" s="99">
-        <f>SUM(Z5:Z33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA34" s="95">
-        <f>SUM(AA5:AA33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB34" s="99">
-        <f>SUM(AB5:AB33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC34" s="99">
-        <f t="shared" ref="AC34:AL34" si="4">SUM(AC5:AC33)</f>
+        <f t="shared" ref="AC34:AL34" si="5">SUM(AC5:AC33)</f>
         <v>0</v>
       </c>
       <c r="AD34" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE34" s="99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF34" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG34" s="126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH34" s="99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI34" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK34" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL34" s="99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM34" s="98">
@@ -5078,22 +5094,22 @@
         <f>SUM(AP5:AP33)</f>
         <v>0</v>
       </c>
-      <c r="AQ34" s="160">
+      <c r="AQ34" s="144">
         <f>SUM(AQ5:AQ33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-    </row>
-    <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+    </row>
+    <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101"/>
       <c r="B36" s="10" t="s">
         <v>17</v>
@@ -5104,28 +5120,28 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="138"/>
-      <c r="P36" s="138"/>
-      <c r="Q36" s="138"/>
-      <c r="R36" s="138"/>
-      <c r="S36" s="138"/>
-      <c r="T36" s="138"/>
-      <c r="U36" s="138"/>
-      <c r="V36" s="138"/>
-      <c r="W36" s="138"/>
-      <c r="X36" s="138"/>
-      <c r="Y36" s="138"/>
-      <c r="Z36" s="138"/>
-      <c r="AA36" s="138"/>
-      <c r="AB36" s="138"/>
-    </row>
-    <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="154"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
+      <c r="U36" s="155"/>
+      <c r="V36" s="155"/>
+      <c r="W36" s="155"/>
+      <c r="X36" s="155"/>
+      <c r="Y36" s="155"/>
+      <c r="Z36" s="155"/>
+      <c r="AA36" s="155"/>
+      <c r="AB36" s="155"/>
+    </row>
+    <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
       <c r="B37" s="9" t="s">
         <v>37</v>
@@ -5136,28 +5152,28 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="136"/>
-      <c r="S37" s="136"/>
-      <c r="T37" s="136"/>
-      <c r="U37" s="136"/>
-      <c r="V37" s="136"/>
-      <c r="W37" s="136"/>
-      <c r="X37" s="136"/>
-      <c r="Y37" s="136"/>
-      <c r="Z37" s="136"/>
-      <c r="AA37" s="136"/>
-      <c r="AB37" s="136"/>
-    </row>
-    <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="153"/>
+      <c r="V37" s="153"/>
+      <c r="W37" s="153"/>
+      <c r="X37" s="153"/>
+      <c r="Y37" s="153"/>
+      <c r="Z37" s="153"/>
+      <c r="AA37" s="153"/>
+      <c r="AB37" s="153"/>
+    </row>
+    <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
       <c r="B38" s="9" t="s">
         <v>38</v>
@@ -5168,52 +5184,57 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
-      <c r="N38" s="136"/>
-      <c r="O38" s="136"/>
-      <c r="P38" s="136"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="136"/>
-      <c r="S38" s="136"/>
-      <c r="T38" s="136"/>
-      <c r="U38" s="136"/>
-      <c r="V38" s="136"/>
-      <c r="W38" s="136"/>
-      <c r="X38" s="136"/>
-      <c r="Y38" s="136"/>
-      <c r="Z38" s="136"/>
-      <c r="AA38" s="136"/>
-      <c r="AB38" s="136"/>
-    </row>
-    <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="153"/>
+      <c r="V38" s="153"/>
+      <c r="W38" s="153"/>
+      <c r="X38" s="153"/>
+      <c r="Y38" s="153"/>
+      <c r="Z38" s="153"/>
+      <c r="AA38" s="153"/>
+      <c r="AB38" s="153"/>
+    </row>
+    <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="12"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="12"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I37:AB38"/>
+    <mergeCell ref="I36:AB36"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="S3:W3"/>
@@ -5221,11 +5242,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="I37:AB38"/>
-    <mergeCell ref="I36:AB36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5249,31 +5265,31 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="106" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="104" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-    </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="158"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="B2" s="102"/>
       <c r="C2" s="2"/>
@@ -5289,7 +5305,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="107" t="s">
         <v>14</v>
       </c>
@@ -5297,7 +5313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="105">
         <f>Zeitplanung!I$4</f>
         <v>43073</v>
@@ -5307,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="105">
         <f>Zeitplanung!J$4</f>
         <v>43074</v>
@@ -5317,17 +5333,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105">
         <f>Zeitplanung!K$4</f>
         <v>43075</v>
       </c>
       <c r="B6" s="103">
         <f>Zeitplanung!K34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="105">
         <f>Zeitplanung!L$4</f>
         <v>43076</v>
@@ -5337,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="105">
         <f>Zeitplanung!M$4</f>
         <v>43077</v>
@@ -5347,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="105">
         <f>Zeitplanung!N$4</f>
         <v>43080</v>
@@ -5357,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105">
         <f>Zeitplanung!O$4</f>
         <v>43081</v>
@@ -5367,17 +5383,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="105">
         <f>Zeitplanung!P$4</f>
         <v>43082</v>
       </c>
       <c r="B11" s="103">
         <f>Zeitplanung!P34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="105">
         <f>Zeitplanung!Q$4</f>
         <v>43083</v>
@@ -5387,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105">
         <f>Zeitplanung!R$4</f>
         <v>43084</v>
@@ -5397,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105">
         <f>Zeitplanung!S$4</f>
         <v>43087</v>
@@ -5407,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105">
         <f>Zeitplanung!T$4</f>
         <v>43088</v>
@@ -5417,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="105">
         <f>Zeitplanung!U$4</f>
         <v>43089</v>
@@ -5427,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="105">
         <f>Zeitplanung!V$4</f>
         <v>43090</v>
@@ -5437,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105">
         <f>Zeitplanung!W$4</f>
         <v>43091</v>
@@ -5447,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="105">
         <f>Zeitplanung!X$4</f>
         <v>43094</v>
@@ -5457,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="105">
         <f>Zeitplanung!Y$4</f>
         <v>43095</v>
@@ -5467,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="105">
         <f>Zeitplanung!Z$4</f>
         <v>43096</v>
@@ -5477,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="105">
         <f>Zeitplanung!AA$4</f>
         <v>43097</v>
@@ -5487,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="105">
         <f>Zeitplanung!AB$4</f>
         <v>43098</v>
@@ -5497,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="105">
         <f>Zeitplanung!AC$4</f>
         <v>43101</v>
@@ -5507,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="105">
         <f>Zeitplanung!AD$4</f>
         <v>43102</v>
@@ -5517,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="105">
         <f>Zeitplanung!AE$4</f>
         <v>43103</v>
@@ -5527,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="105">
         <f>Zeitplanung!AF$4</f>
         <v>43104</v>
@@ -5537,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="105">
         <f>Zeitplanung!AG$4</f>
         <v>43105</v>
@@ -5547,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="105">
         <f>Zeitplanung!AH$4</f>
         <v>43108</v>
@@ -5557,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="105">
         <f>Zeitplanung!AI$4</f>
         <v>43109</v>
@@ -5567,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="105">
         <f>Zeitplanung!AJ$4</f>
         <v>43110</v>
@@ -5577,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="105">
         <f>Zeitplanung!AK$4</f>
         <v>43111</v>
@@ -5587,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="105">
         <f>Zeitplanung!AL$4</f>
         <v>43112</v>
@@ -5597,13 +5613,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="144" t="s">
+    <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="145"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="3" t="s">
         <v>21</v>
       </c>
@@ -5611,39 +5627,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="141" t="s">
+    <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="142"/>
+      <c r="B37" s="157"/>
       <c r="C37" s="103">
         <f>Zeitplanung!C5</f>
         <v>12.6</v>
       </c>
       <c r="D37" s="103">
         <f>Zeitplanung!D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="147"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="103">
         <f>Zeitplanung!C11</f>
         <v>5</v>
       </c>
       <c r="D38" s="103">
         <f>Zeitplanung!D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="142"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="157"/>
       <c r="C39" s="103">
         <f>Zeitplanung!C16</f>
         <v>65</v>
@@ -5653,11 +5669,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="146" t="s">
+    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="147"/>
+      <c r="B40" s="162"/>
       <c r="C40" s="103">
         <f>Zeitplanung!C24</f>
         <v>3</v>
@@ -5667,11 +5683,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="141" t="s">
+    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="142"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="103">
         <f>Zeitplanung!C28</f>
         <v>8</v>
@@ -5681,11 +5697,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="141" t="s">
+    <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="142"/>
+      <c r="B42" s="157"/>
       <c r="C42" s="103">
         <f>Zeitplanung!C31</f>
         <v>0</v>
@@ -5695,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A41:B41"/>

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -1992,31 +1992,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3072,36 +3072,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="155"/>
     </row>
     <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -3116,63 +3116,63 @@
     <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="150"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="150"/>
       <c r="N3" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
       <c r="S3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="147"/>
+      <c r="W3" s="147"/>
       <c r="X3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
       <c r="AC3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="147"/>
       <c r="AH3" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="151"/>
-      <c r="AM3" s="150" t="s">
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="147"/>
+      <c r="AL3" s="150"/>
+      <c r="AM3" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="152"/>
+      <c r="AN3" s="147"/>
+      <c r="AO3" s="147"/>
+      <c r="AP3" s="147"/>
+      <c r="AQ3" s="148"/>
     </row>
     <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
@@ -5101,13 +5101,13 @@
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
     </row>
     <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101"/>
@@ -5120,26 +5120,26 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="155"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="155"/>
-      <c r="W36" s="155"/>
-      <c r="X36" s="155"/>
-      <c r="Y36" s="155"/>
-      <c r="Z36" s="155"/>
-      <c r="AA36" s="155"/>
-      <c r="AB36" s="155"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="153"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="153"/>
+      <c r="AB36" s="153"/>
     </row>
     <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
@@ -5152,26 +5152,26 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="153"/>
-      <c r="U37" s="153"/>
-      <c r="V37" s="153"/>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
-      <c r="Y37" s="153"/>
-      <c r="Z37" s="153"/>
-      <c r="AA37" s="153"/>
-      <c r="AB37" s="153"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="151"/>
+      <c r="AB37" s="151"/>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
@@ -5184,26 +5184,26 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
-      <c r="V38" s="153"/>
-      <c r="W38" s="153"/>
-      <c r="X38" s="153"/>
-      <c r="Y38" s="153"/>
-      <c r="Z38" s="153"/>
-      <c r="AA38" s="153"/>
-      <c r="AB38" s="153"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="151"/>
+      <c r="W38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="151"/>
+      <c r="Z38" s="151"/>
+      <c r="AA38" s="151"/>
+      <c r="AB38" s="151"/>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
@@ -5230,11 +5230,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="I37:AB38"/>
-    <mergeCell ref="I36:AB36"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="S3:W3"/>
@@ -5242,6 +5237,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I37:AB38"/>
+    <mergeCell ref="I36:AB36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -1992,16 +1992,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2011,12 +2017,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2252,7 +2252,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2537,7 +2537,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3053,7 +3053,7 @@
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3072,36 +3072,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
     </row>
     <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -3116,63 +3116,63 @@
     <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="147"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151"/>
       <c r="N3" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
       <c r="S3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
       <c r="X3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="147"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
       <c r="AC3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="147"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
       <c r="AH3" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="147"/>
-      <c r="AJ3" s="147"/>
-      <c r="AK3" s="147"/>
-      <c r="AL3" s="150"/>
-      <c r="AM3" s="147" t="s">
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="151"/>
+      <c r="AM3" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="147"/>
-      <c r="AO3" s="147"/>
-      <c r="AP3" s="147"/>
-      <c r="AQ3" s="148"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="150"/>
+      <c r="AP3" s="150"/>
+      <c r="AQ3" s="152"/>
     </row>
     <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="D16" s="82">
         <f>SUM(D17:D23)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="84"/>
@@ -4009,9 +4009,9 @@
       <c r="C17" s="32">
         <v>28</v>
       </c>
-      <c r="D17" s="53" t="str">
+      <c r="D17" s="53">
         <f>IF(SUM(I17:AB17)=0," ",SUM(I17:AB17))</f>
-        <v xml:space="preserve"> </v>
+        <v>7</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4029,7 +4029,9 @@
       <c r="N17" s="108"/>
       <c r="O17" s="108"/>
       <c r="P17" s="35"/>
-      <c r="Q17" s="110"/>
+      <c r="Q17" s="110">
+        <v>7</v>
+      </c>
       <c r="R17" s="122"/>
       <c r="S17" s="119"/>
       <c r="T17" s="108"/>
@@ -4952,7 +4954,7 @@
       </c>
       <c r="D34" s="95">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -4992,7 +4994,7 @@
       </c>
       <c r="Q34" s="95">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R34" s="99">
         <f t="shared" si="4"/>
@@ -5101,13 +5103,13 @@
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
     </row>
     <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101"/>
@@ -5120,26 +5122,26 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="153"/>
-      <c r="W36" s="153"/>
-      <c r="X36" s="153"/>
-      <c r="Y36" s="153"/>
-      <c r="Z36" s="153"/>
-      <c r="AA36" s="153"/>
-      <c r="AB36" s="153"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
+      <c r="U36" s="155"/>
+      <c r="V36" s="155"/>
+      <c r="W36" s="155"/>
+      <c r="X36" s="155"/>
+      <c r="Y36" s="155"/>
+      <c r="Z36" s="155"/>
+      <c r="AA36" s="155"/>
+      <c r="AB36" s="155"/>
     </row>
     <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
@@ -5152,26 +5154,26 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="151"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="151"/>
-      <c r="AB37" s="151"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="153"/>
+      <c r="V37" s="153"/>
+      <c r="W37" s="153"/>
+      <c r="X37" s="153"/>
+      <c r="Y37" s="153"/>
+      <c r="Z37" s="153"/>
+      <c r="AA37" s="153"/>
+      <c r="AB37" s="153"/>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
@@ -5184,26 +5186,26 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
-      <c r="AB38" s="151"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="153"/>
+      <c r="V38" s="153"/>
+      <c r="W38" s="153"/>
+      <c r="X38" s="153"/>
+      <c r="Y38" s="153"/>
+      <c r="Z38" s="153"/>
+      <c r="AA38" s="153"/>
+      <c r="AB38" s="153"/>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
@@ -5230,6 +5232,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I37:AB38"/>
+    <mergeCell ref="I36:AB36"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="S3:W3"/>
@@ -5237,11 +5244,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="I37:AB38"/>
-    <mergeCell ref="I36:AB36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5400,7 +5402,7 @@
       </c>
       <c r="B12" s="103">
         <f>Zeitplanung!Q34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5666,7 +5668,7 @@
       </c>
       <c r="D39" s="103">
         <f>Zeitplanung!D16</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -1992,31 +1992,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2255,7 +2255,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2531,13 +2531,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3053,7 +3053,7 @@
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3072,36 +3072,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="155"/>
     </row>
     <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -3116,63 +3116,63 @@
     <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="150"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="150"/>
       <c r="N3" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
       <c r="S3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="147"/>
+      <c r="W3" s="147"/>
       <c r="X3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
       <c r="AC3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="147"/>
       <c r="AH3" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="151"/>
-      <c r="AM3" s="150" t="s">
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="147"/>
+      <c r="AL3" s="150"/>
+      <c r="AM3" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="152"/>
+      <c r="AN3" s="147"/>
+      <c r="AO3" s="147"/>
+      <c r="AP3" s="147"/>
+      <c r="AQ3" s="148"/>
     </row>
     <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="D5" s="82">
         <f>SUM(D6:D10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="84"/>
@@ -3517,9 +3517,9 @@
       <c r="C8" s="39">
         <v>4</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="33">
         <f>IF(SUM(I8:AQ8)=0," ",SUM(I8:AQ8))</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="E8" s="38">
         <v>1</v>
@@ -3536,7 +3536,9 @@
       <c r="O8" s="108"/>
       <c r="P8" s="35"/>
       <c r="Q8" s="42"/>
-      <c r="R8" s="122"/>
+      <c r="R8" s="122">
+        <v>1</v>
+      </c>
       <c r="S8" s="119"/>
       <c r="T8" s="108"/>
       <c r="U8" s="35"/>
@@ -3957,7 +3959,7 @@
       </c>
       <c r="D16" s="82">
         <f>SUM(D17:D23)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="84"/>
@@ -4011,7 +4013,7 @@
       </c>
       <c r="D17" s="53">
         <f>IF(SUM(I17:AB17)=0," ",SUM(I17:AB17))</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4032,7 +4034,9 @@
       <c r="Q17" s="110">
         <v>7</v>
       </c>
-      <c r="R17" s="122"/>
+      <c r="R17" s="122">
+        <v>6</v>
+      </c>
       <c r="S17" s="119"/>
       <c r="T17" s="108"/>
       <c r="U17" s="110"/>
@@ -4954,7 +4958,7 @@
       </c>
       <c r="D34" s="95">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -4998,7 +5002,7 @@
       </c>
       <c r="R34" s="99">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S34" s="98">
         <f t="shared" si="4"/>
@@ -5103,13 +5107,13 @@
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
     </row>
     <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101"/>
@@ -5122,26 +5126,26 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="155"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="155"/>
-      <c r="W36" s="155"/>
-      <c r="X36" s="155"/>
-      <c r="Y36" s="155"/>
-      <c r="Z36" s="155"/>
-      <c r="AA36" s="155"/>
-      <c r="AB36" s="155"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="153"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="153"/>
+      <c r="AB36" s="153"/>
     </row>
     <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
@@ -5154,26 +5158,26 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="153"/>
-      <c r="U37" s="153"/>
-      <c r="V37" s="153"/>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
-      <c r="Y37" s="153"/>
-      <c r="Z37" s="153"/>
-      <c r="AA37" s="153"/>
-      <c r="AB37" s="153"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="151"/>
+      <c r="AB37" s="151"/>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
@@ -5186,26 +5190,26 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
-      <c r="V38" s="153"/>
-      <c r="W38" s="153"/>
-      <c r="X38" s="153"/>
-      <c r="Y38" s="153"/>
-      <c r="Z38" s="153"/>
-      <c r="AA38" s="153"/>
-      <c r="AB38" s="153"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="151"/>
+      <c r="W38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="151"/>
+      <c r="Z38" s="151"/>
+      <c r="AA38" s="151"/>
+      <c r="AB38" s="151"/>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
@@ -5232,11 +5236,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="I37:AB38"/>
-    <mergeCell ref="I36:AB36"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="S3:W3"/>
@@ -5244,6 +5243,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I37:AB38"/>
+    <mergeCell ref="I36:AB36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5412,7 +5416,7 @@
       </c>
       <c r="B13" s="103">
         <f>Zeitplanung!R34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5640,7 +5644,7 @@
       </c>
       <c r="D37" s="103">
         <f>Zeitplanung!D5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5668,7 +5672,7 @@
       </c>
       <c r="D39" s="103">
         <f>Zeitplanung!D16</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1992,16 +1992,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2011,12 +2017,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2264,7 +2264,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2537,7 +2537,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3052,8 +3052,8 @@
   </sheetPr>
   <dimension ref="A1:AU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3072,36 +3072,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
     </row>
     <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -3116,63 +3116,63 @@
     <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="147"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151"/>
       <c r="N3" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
       <c r="S3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
       <c r="X3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="147"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
       <c r="AC3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="147"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="150"/>
       <c r="AH3" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="147"/>
-      <c r="AJ3" s="147"/>
-      <c r="AK3" s="147"/>
-      <c r="AL3" s="150"/>
-      <c r="AM3" s="147" t="s">
+      <c r="AI3" s="150"/>
+      <c r="AJ3" s="150"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="151"/>
+      <c r="AM3" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="147"/>
-      <c r="AO3" s="147"/>
-      <c r="AP3" s="147"/>
-      <c r="AQ3" s="148"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="150"/>
+      <c r="AP3" s="150"/>
+      <c r="AQ3" s="152"/>
     </row>
     <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="D16" s="82">
         <f>SUM(D17:D23)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="84"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="D17" s="53">
         <f>IF(SUM(I17:AB17)=0," ",SUM(I17:AB17))</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4039,7 +4039,9 @@
       </c>
       <c r="S17" s="119"/>
       <c r="T17" s="108"/>
-      <c r="U17" s="110"/>
+      <c r="U17" s="110">
+        <v>5</v>
+      </c>
       <c r="V17" s="110"/>
       <c r="W17" s="122"/>
       <c r="X17" s="111"/>
@@ -4073,9 +4075,9 @@
       <c r="C18" s="32">
         <v>9</v>
       </c>
-      <c r="D18" s="53" t="str">
+      <c r="D18" s="53">
         <f t="shared" ref="D18:D23" si="3">IF(SUM(I18:AB18)=0," ",SUM(I18:AB18))</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="E18" s="31">
         <v>1</v>
@@ -4095,7 +4097,9 @@
       <c r="R18" s="37"/>
       <c r="S18" s="119"/>
       <c r="T18" s="108"/>
-      <c r="U18" s="110"/>
+      <c r="U18" s="110">
+        <v>2</v>
+      </c>
       <c r="V18" s="110"/>
       <c r="W18" s="122"/>
       <c r="X18" s="111"/>
@@ -4958,7 +4962,7 @@
       </c>
       <c r="D34" s="95">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -5014,7 +5018,7 @@
       </c>
       <c r="U34" s="99">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V34" s="95">
         <f t="shared" si="4"/>
@@ -5107,13 +5111,13 @@
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
     </row>
     <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101"/>
@@ -5126,26 +5130,26 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="153"/>
-      <c r="W36" s="153"/>
-      <c r="X36" s="153"/>
-      <c r="Y36" s="153"/>
-      <c r="Z36" s="153"/>
-      <c r="AA36" s="153"/>
-      <c r="AB36" s="153"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
+      <c r="U36" s="155"/>
+      <c r="V36" s="155"/>
+      <c r="W36" s="155"/>
+      <c r="X36" s="155"/>
+      <c r="Y36" s="155"/>
+      <c r="Z36" s="155"/>
+      <c r="AA36" s="155"/>
+      <c r="AB36" s="155"/>
     </row>
     <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
@@ -5158,26 +5162,26 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="151"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="151"/>
-      <c r="AB37" s="151"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="153"/>
+      <c r="V37" s="153"/>
+      <c r="W37" s="153"/>
+      <c r="X37" s="153"/>
+      <c r="Y37" s="153"/>
+      <c r="Z37" s="153"/>
+      <c r="AA37" s="153"/>
+      <c r="AB37" s="153"/>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
@@ -5190,26 +5194,26 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
-      <c r="AB38" s="151"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="153"/>
+      <c r="V38" s="153"/>
+      <c r="W38" s="153"/>
+      <c r="X38" s="153"/>
+      <c r="Y38" s="153"/>
+      <c r="Z38" s="153"/>
+      <c r="AA38" s="153"/>
+      <c r="AB38" s="153"/>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
@@ -5236,6 +5240,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I37:AB38"/>
+    <mergeCell ref="I36:AB36"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="S3:W3"/>
@@ -5243,11 +5252,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="I37:AB38"/>
-    <mergeCell ref="I36:AB36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5446,7 +5450,7 @@
       </c>
       <c r="B16" s="103">
         <f>Zeitplanung!U34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5672,7 +5676,7 @@
       </c>
       <c r="D39" s="103">
         <f>Zeitplanung!D16</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Nr.</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>F.REQ.006 USB Sticks auswählen</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -2267,10 +2270,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2537,7 +2540,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3052,8 +3055,8 @@
   </sheetPr>
   <dimension ref="A1:AU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3062,7 +3065,8 @@
     <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="3.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="3.875" style="15" customWidth="1"/>
-    <col min="5" max="7" width="3.875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="3.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="3.875" style="16" customWidth="1"/>
     <col min="9" max="28" width="3.25" style="5" customWidth="1"/>
     <col min="29" max="33" width="3.25" style="4" customWidth="1"/>
@@ -3959,7 +3963,7 @@
       </c>
       <c r="D16" s="82">
         <f>SUM(D17:D23)</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="84"/>
@@ -4013,7 +4017,7 @@
       </c>
       <c r="D17" s="53">
         <f>IF(SUM(I17:AB17)=0," ",SUM(I17:AB17))</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
@@ -4042,8 +4046,12 @@
       <c r="U17" s="110">
         <v>5</v>
       </c>
-      <c r="V17" s="110"/>
-      <c r="W17" s="122"/>
+      <c r="V17" s="110">
+        <v>5</v>
+      </c>
+      <c r="W17" s="122">
+        <v>6</v>
+      </c>
       <c r="X17" s="111"/>
       <c r="Y17" s="111"/>
       <c r="Z17" s="111"/>
@@ -4077,7 +4085,7 @@
       </c>
       <c r="D18" s="53">
         <f t="shared" ref="D18:D23" si="3">IF(SUM(I18:AB18)=0," ",SUM(I18:AB18))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="31">
         <v>1</v>
@@ -4100,8 +4108,12 @@
       <c r="U18" s="110">
         <v>2</v>
       </c>
-      <c r="V18" s="110"/>
-      <c r="W18" s="122"/>
+      <c r="V18" s="110">
+        <v>2</v>
+      </c>
+      <c r="W18" s="122">
+        <v>1</v>
+      </c>
       <c r="X18" s="111"/>
       <c r="Y18" s="111"/>
       <c r="Z18" s="111"/>
@@ -4155,9 +4167,15 @@
       <c r="R19" s="37"/>
       <c r="S19" s="119"/>
       <c r="T19" s="108"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="122"/>
+      <c r="U19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="122" t="s">
+        <v>50</v>
+      </c>
       <c r="X19" s="111"/>
       <c r="Y19" s="111"/>
       <c r="Z19" s="111"/>
@@ -4962,7 +4980,7 @@
       </c>
       <c r="D34" s="95">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -5022,11 +5040,11 @@
       </c>
       <c r="V34" s="95">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W34" s="99">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X34" s="98">
         <f t="shared" si="4"/>
@@ -5460,7 +5478,7 @@
       </c>
       <c r="B17" s="103">
         <f>Zeitplanung!V34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5470,7 +5488,7 @@
       </c>
       <c r="B18" s="103">
         <f>Zeitplanung!W34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5676,7 +5694,7 @@
       </c>
       <c r="D39" s="103">
         <f>Zeitplanung!D16</f>
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Nr.</t>
   </si>
@@ -1995,31 +1995,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2312,10 +2312,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -3056,7 +3056,7 @@
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="AK19" sqref="AK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3076,36 +3076,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="155"/>
     </row>
     <row r="2" spans="1:47" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -3120,63 +3120,63 @@
     <row r="3" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="63"/>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="150"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="150"/>
       <c r="N3" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
       <c r="S3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="147"/>
+      <c r="W3" s="147"/>
       <c r="X3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
       <c r="AC3" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="147"/>
       <c r="AH3" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="151"/>
-      <c r="AM3" s="150" t="s">
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="147"/>
+      <c r="AL3" s="150"/>
+      <c r="AM3" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="152"/>
+      <c r="AN3" s="147"/>
+      <c r="AO3" s="147"/>
+      <c r="AP3" s="147"/>
+      <c r="AQ3" s="148"/>
     </row>
     <row r="4" spans="1:47" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
@@ -4064,8 +4064,12 @@
       <c r="AG17" s="125"/>
       <c r="AH17" s="127"/>
       <c r="AI17" s="120"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="53"/>
+      <c r="AJ17" s="36">
+        <v>6</v>
+      </c>
+      <c r="AK17" s="53">
+        <v>7</v>
+      </c>
       <c r="AL17" s="54"/>
       <c r="AM17" s="119"/>
       <c r="AN17" s="108"/>
@@ -4126,8 +4130,12 @@
       <c r="AG18" s="125"/>
       <c r="AH18" s="127"/>
       <c r="AI18" s="120"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="53"/>
+      <c r="AJ18" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="53" t="s">
+        <v>50</v>
+      </c>
       <c r="AL18" s="54"/>
       <c r="AM18" s="119"/>
       <c r="AN18" s="108"/>
@@ -4188,8 +4196,12 @@
       <c r="AG19" s="125"/>
       <c r="AH19" s="127"/>
       <c r="AI19" s="120"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="53"/>
+      <c r="AJ19" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK19" s="53" t="s">
+        <v>50</v>
+      </c>
       <c r="AL19" s="54"/>
       <c r="AM19" s="119"/>
       <c r="AN19" s="108"/>
@@ -5096,11 +5108,11 @@
       </c>
       <c r="AJ34" s="99">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK34" s="95">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL34" s="99">
         <f t="shared" si="5"/>
@@ -5129,13 +5141,13 @@
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
     </row>
     <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101"/>
@@ -5148,26 +5160,26 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="155"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="155"/>
-      <c r="W36" s="155"/>
-      <c r="X36" s="155"/>
-      <c r="Y36" s="155"/>
-      <c r="Z36" s="155"/>
-      <c r="AA36" s="155"/>
-      <c r="AB36" s="155"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="153"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="153"/>
+      <c r="AB36" s="153"/>
     </row>
     <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109"/>
@@ -5180,26 +5192,26 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="153"/>
-      <c r="U37" s="153"/>
-      <c r="V37" s="153"/>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
-      <c r="Y37" s="153"/>
-      <c r="Z37" s="153"/>
-      <c r="AA37" s="153"/>
-      <c r="AB37" s="153"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="151"/>
+      <c r="AB37" s="151"/>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
@@ -5212,26 +5224,26 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
-      <c r="V38" s="153"/>
-      <c r="W38" s="153"/>
-      <c r="X38" s="153"/>
-      <c r="Y38" s="153"/>
-      <c r="Z38" s="153"/>
-      <c r="AA38" s="153"/>
-      <c r="AB38" s="153"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="151"/>
+      <c r="W38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="151"/>
+      <c r="Z38" s="151"/>
+      <c r="AA38" s="151"/>
+      <c r="AB38" s="151"/>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
@@ -5258,11 +5270,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="I37:AB38"/>
-    <mergeCell ref="I36:AB36"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="S3:W3"/>
@@ -5270,6 +5277,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I37:AB38"/>
+    <mergeCell ref="I36:AB36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5618,7 +5630,7 @@
       </c>
       <c r="B31" s="103">
         <f>Zeitplanung!AJ34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5628,7 +5640,7 @@
       </c>
       <c r="B32" s="103">
         <f>Zeitplanung!AK34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/doc/Zeitplan CorrectionTool.xlsx
+++ b/doc/Zeitplan CorrectionTool.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Nr.</t>
   </si>
@@ -2318,7 +2318,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2534,7 +2534,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -3056,7 +3056,7 @@
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+      <selection activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3071,7 +3071,9 @@
     <col min="9" max="28" width="3.25" style="5" customWidth="1"/>
     <col min="29" max="33" width="3.25" style="4" customWidth="1"/>
     <col min="34" max="38" width="3.125" style="4" customWidth="1"/>
-    <col min="39" max="43" width="2.75" style="5" customWidth="1"/>
+    <col min="39" max="40" width="2.75" style="5" customWidth="1"/>
+    <col min="41" max="41" width="3.875" style="5" customWidth="1"/>
+    <col min="42" max="43" width="2.75" style="5" customWidth="1"/>
     <col min="44" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
@@ -3353,7 +3355,7 @@
       </c>
       <c r="D5" s="82">
         <f>SUM(D6:D10)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="84"/>
@@ -3523,7 +3525,7 @@
       </c>
       <c r="D8" s="33">
         <f>IF(SUM(I8:AQ8)=0," ",SUM(I8:AQ8))</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="38">
         <v>1</v>
@@ -3562,7 +3564,9 @@
       <c r="AI8" s="120"/>
       <c r="AJ8" s="42"/>
       <c r="AK8" s="33"/>
-      <c r="AL8" s="122"/>
+      <c r="AL8" s="122">
+        <v>0.5</v>
+      </c>
       <c r="AM8" s="119"/>
       <c r="AN8" s="108"/>
       <c r="AO8" s="42"/>
@@ -4070,10 +4074,14 @@
       <c r="AK17" s="53">
         <v>7</v>
       </c>
-      <c r="AL17" s="54"/>
+      <c r="AL17" s="54">
+        <v>6</v>
+      </c>
       <c r="AM17" s="119"/>
       <c r="AN17" s="108"/>
-      <c r="AO17" s="36"/>
+      <c r="AO17" s="36">
+        <v>3.5</v>
+      </c>
       <c r="AP17" s="53"/>
       <c r="AQ17" s="140"/>
     </row>
@@ -4136,7 +4144,9 @@
       <c r="AK18" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="AL18" s="54"/>
+      <c r="AL18" s="54" t="s">
+        <v>50</v>
+      </c>
       <c r="AM18" s="119"/>
       <c r="AN18" s="108"/>
       <c r="AO18" s="36"/>
@@ -4202,7 +4212,9 @@
       <c r="AK19" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="AL19" s="54"/>
+      <c r="AL19" s="54" t="s">
+        <v>50</v>
+      </c>
       <c r="AM19" s="119"/>
       <c r="AN19" s="108"/>
       <c r="AO19" s="36"/>
@@ -4544,7 +4556,9 @@
       <c r="AL25" s="124"/>
       <c r="AM25" s="119"/>
       <c r="AN25" s="108"/>
-      <c r="AO25" s="110"/>
+      <c r="AO25" s="110">
+        <v>1.5</v>
+      </c>
       <c r="AP25" s="36"/>
       <c r="AQ25" s="142"/>
     </row>
@@ -4600,7 +4614,9 @@
       <c r="AL26" s="37"/>
       <c r="AM26" s="119"/>
       <c r="AN26" s="108"/>
-      <c r="AO26" s="110"/>
+      <c r="AO26" s="110">
+        <v>2</v>
+      </c>
       <c r="AP26" s="42"/>
       <c r="AQ26" s="143"/>
     </row>
@@ -4992,7 +5008,7 @@
       </c>
       <c r="D34" s="95">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -5116,7 +5132,7 @@
       </c>
       <c r="AL34" s="99">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AM34" s="98">
         <f>SUM(AM5:AM33)</f>
@@ -5128,7 +5144,7 @@
       </c>
       <c r="AO34" s="99">
         <f>SUM(AO5:AO33)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AP34" s="95">
         <f>SUM(AP5:AP33)</f>
@@ -5650,7 +5666,7 @@
       </c>
       <c r="B33" s="103">
         <f>Zeitplanung!AL34</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -5678,7 +5694,7 @@
       </c>
       <c r="D37" s="103">
         <f>Zeitplanung!D5</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
